--- a/season/season-2324_csv.xlsx
+++ b/season/season-2324_csv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="45">
   <si>
     <t>Giornata</t>
   </si>
@@ -46,6 +46,48 @@
     <t>5</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>Empoli</t>
   </si>
   <si>
@@ -107,9 +149,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
 </sst>
 </file>
@@ -467,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,13 +534,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -512,10 +551,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -529,10 +568,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -546,16 +585,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -563,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -580,13 +619,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -597,10 +636,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -614,13 +653,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -631,16 +670,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -648,13 +687,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -665,10 +704,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -682,16 +721,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -699,10 +738,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -716,10 +755,10 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -733,10 +772,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -750,10 +789,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -767,13 +806,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -784,16 +823,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -801,10 +840,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -818,13 +857,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -835,10 +874,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -852,10 +891,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -869,10 +908,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -886,16 +925,16 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -903,16 +942,16 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -920,10 +959,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -937,16 +976,16 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -954,16 +993,16 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -971,13 +1010,13 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
@@ -988,16 +1027,16 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1005,10 +1044,10 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1022,10 +1061,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1039,10 +1078,10 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
@@ -1056,16 +1095,16 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1073,10 +1112,10 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -1090,10 +1129,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -1107,10 +1146,10 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1124,16 +1163,16 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1141,13 +1180,13 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -1158,16 +1197,16 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1175,10 +1214,10 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -1192,16 +1231,16 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1209,16 +1248,16 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1226,10 +1265,10 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -1243,10 +1282,10 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -1260,13 +1299,13 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -1277,16 +1316,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1294,13 +1333,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
@@ -1311,16 +1350,16 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1328,15 +1367,2395 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" t="s">
+        <v>42</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D89" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" t="s">
+        <v>43</v>
+      </c>
+      <c r="D100" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" t="s">
+        <v>37</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" t="s">
+        <v>39</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103" t="s">
+        <v>40</v>
+      </c>
+      <c r="D103" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105" t="s">
+        <v>44</v>
+      </c>
+      <c r="E105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" t="s">
+        <v>42</v>
+      </c>
+      <c r="C107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109" t="s">
+        <v>38</v>
+      </c>
+      <c r="D109" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111" t="s">
+        <v>29</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" t="s">
+        <v>41</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" t="s">
+        <v>38</v>
+      </c>
+      <c r="C115" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116" t="s">
+        <v>32</v>
+      </c>
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" t="s">
+        <v>44</v>
+      </c>
+      <c r="E117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C118" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119" t="s">
+        <v>43</v>
+      </c>
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120" t="s">
+        <v>39</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>44</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" t="s">
+        <v>39</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123" t="s">
+        <v>43</v>
+      </c>
+      <c r="C123" t="s">
+        <v>40</v>
+      </c>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" t="s">
+        <v>37</v>
+      </c>
+      <c r="D124" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" t="s">
+        <v>42</v>
+      </c>
+      <c r="C125" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" t="s">
+        <v>29</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" t="s">
+        <v>31</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" t="s">
+        <v>38</v>
+      </c>
+      <c r="C129" t="s">
+        <v>27</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130" t="s">
+        <v>30</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" t="s">
+        <v>32</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
         <v>18</v>
       </c>
-      <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="B132" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>18</v>
+      </c>
+      <c r="B133" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" t="s">
+        <v>39</v>
+      </c>
+      <c r="C134" t="s">
+        <v>42</v>
+      </c>
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136" t="s">
+        <v>33</v>
+      </c>
+      <c r="D136" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" t="s">
+        <v>37</v>
+      </c>
+      <c r="C137" t="s">
+        <v>41</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>18</v>
+      </c>
+      <c r="B138" t="s">
+        <v>31</v>
+      </c>
+      <c r="C138" t="s">
+        <v>35</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>18</v>
+      </c>
+      <c r="B139" t="s">
+        <v>29</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>18</v>
+      </c>
+      <c r="B140" t="s">
+        <v>40</v>
+      </c>
+      <c r="C140" t="s">
+        <v>27</v>
+      </c>
+      <c r="D140" t="s">
+        <v>44</v>
+      </c>
+      <c r="E140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>18</v>
+      </c>
+      <c r="B141" t="s">
+        <v>32</v>
+      </c>
+      <c r="C141" t="s">
+        <v>43</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142" t="s">
+        <v>40</v>
+      </c>
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" t="s">
+        <v>35</v>
+      </c>
+      <c r="C143" t="s">
+        <v>39</v>
+      </c>
+      <c r="D143" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" t="s">
+        <v>43</v>
+      </c>
+      <c r="C144" t="s">
+        <v>36</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" t="s">
+        <v>31</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146" t="s">
+        <v>32</v>
+      </c>
+      <c r="D146" t="s">
+        <v>44</v>
+      </c>
+      <c r="E146" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" t="s">
+        <v>41</v>
+      </c>
+      <c r="C148" t="s">
+        <v>33</v>
+      </c>
+      <c r="D148" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" t="s">
+        <v>28</v>
+      </c>
+      <c r="C149" t="s">
+        <v>37</v>
+      </c>
+      <c r="D149" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150" t="s">
+        <v>30</v>
+      </c>
+      <c r="D150" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" t="s">
+        <v>42</v>
+      </c>
+      <c r="C151" t="s">
+        <v>29</v>
+      </c>
+      <c r="D151" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152" t="s">
+        <v>38</v>
+      </c>
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" t="s">
+        <v>30</v>
+      </c>
+      <c r="C153" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>20</v>
+      </c>
+      <c r="B154" t="s">
+        <v>40</v>
+      </c>
+      <c r="C154" t="s">
+        <v>42</v>
+      </c>
+      <c r="D154" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>20</v>
+      </c>
+      <c r="B155" t="s">
+        <v>32</v>
+      </c>
+      <c r="C155" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" t="s">
+        <v>34</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>20</v>
+      </c>
+      <c r="B157" t="s">
+        <v>37</v>
+      </c>
+      <c r="C157" t="s">
+        <v>35</v>
+      </c>
+      <c r="D157" t="s">
+        <v>5</v>
+      </c>
+      <c r="E157" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" t="s">
+        <v>31</v>
+      </c>
+      <c r="C158" t="s">
+        <v>29</v>
+      </c>
+      <c r="D158" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>20</v>
+      </c>
+      <c r="B159" t="s">
+        <v>33</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160" t="s">
+        <v>39</v>
+      </c>
+      <c r="C160" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" t="s">
+        <v>44</v>
+      </c>
+      <c r="E160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>20</v>
+      </c>
+      <c r="B161" t="s">
+        <v>43</v>
+      </c>
+      <c r="C161" t="s">
+        <v>41</v>
+      </c>
+      <c r="D161" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162" t="s">
+        <v>24</v>
+      </c>
+      <c r="C162" t="s">
+        <v>39</v>
+      </c>
+      <c r="D162" t="s">
+        <v>44</v>
+      </c>
+      <c r="E162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>21</v>
+      </c>
+      <c r="B163" t="s">
+        <v>29</v>
+      </c>
+      <c r="C163" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" t="s">
+        <v>5</v>
+      </c>
+      <c r="E163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>21</v>
+      </c>
+      <c r="B164" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" t="s">
+        <v>37</v>
+      </c>
+      <c r="D164" t="s">
+        <v>44</v>
+      </c>
+      <c r="E164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>21</v>
+      </c>
+      <c r="B165" t="s">
+        <v>41</v>
+      </c>
+      <c r="C165" t="s">
+        <v>36</v>
+      </c>
+      <c r="D165" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166" t="s">
+        <v>38</v>
+      </c>
+      <c r="D166" t="s">
+        <v>5</v>
+      </c>
+      <c r="E166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>21</v>
+      </c>
+      <c r="B167" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167" t="s">
+        <v>43</v>
+      </c>
+      <c r="D167" t="s">
+        <v>5</v>
+      </c>
+      <c r="E167" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" t="s">
+        <v>32</v>
+      </c>
+      <c r="C168" t="s">
+        <v>31</v>
+      </c>
+      <c r="D168" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" t="s">
+        <v>35</v>
+      </c>
+      <c r="C169" t="s">
+        <v>42</v>
+      </c>
+      <c r="D169" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" t="s">
+        <v>27</v>
+      </c>
+      <c r="C170" t="s">
+        <v>30</v>
+      </c>
+      <c r="D170" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171" t="s">
+        <v>28</v>
+      </c>
+      <c r="C171" t="s">
+        <v>40</v>
+      </c>
+      <c r="D171" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>22</v>
+      </c>
+      <c r="B172" t="s">
+        <v>37</v>
+      </c>
+      <c r="C172" t="s">
+        <v>32</v>
+      </c>
+      <c r="D172" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>22</v>
+      </c>
+      <c r="B173" t="s">
+        <v>40</v>
+      </c>
+      <c r="C173" t="s">
+        <v>34</v>
+      </c>
+      <c r="D173" t="s">
+        <v>44</v>
+      </c>
+      <c r="E173" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>22</v>
+      </c>
+      <c r="B174" t="s">
+        <v>26</v>
+      </c>
+      <c r="C174" t="s">
+        <v>27</v>
+      </c>
+      <c r="D174" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>22</v>
+      </c>
+      <c r="B175" t="s">
+        <v>39</v>
+      </c>
+      <c r="C175" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>22</v>
+      </c>
+      <c r="B176" t="s">
+        <v>43</v>
+      </c>
+      <c r="C176" t="s">
+        <v>30</v>
+      </c>
+      <c r="D176" t="s">
+        <v>5</v>
+      </c>
+      <c r="E176" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>22</v>
+      </c>
+      <c r="B177" t="s">
+        <v>42</v>
+      </c>
+      <c r="C177" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177" t="s">
+        <v>44</v>
+      </c>
+      <c r="E177" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>22</v>
+      </c>
+      <c r="B178" t="s">
+        <v>31</v>
+      </c>
+      <c r="C178" t="s">
+        <v>33</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>22</v>
+      </c>
+      <c r="B179" t="s">
+        <v>35</v>
+      </c>
+      <c r="C179" t="s">
+        <v>41</v>
+      </c>
+      <c r="D179" t="s">
+        <v>44</v>
+      </c>
+      <c r="E179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>22</v>
+      </c>
+      <c r="B180" t="s">
+        <v>36</v>
+      </c>
+      <c r="C180" t="s">
+        <v>29</v>
+      </c>
+      <c r="D180" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>22</v>
+      </c>
+      <c r="B181" t="s">
+        <v>38</v>
+      </c>
+      <c r="C181" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>23</v>
+      </c>
+      <c r="B182" t="s">
+        <v>33</v>
+      </c>
+      <c r="C182" t="s">
+        <v>26</v>
+      </c>
+      <c r="D182" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>23</v>
+      </c>
+      <c r="B183" t="s">
+        <v>27</v>
+      </c>
+      <c r="C183" t="s">
+        <v>35</v>
+      </c>
+      <c r="D183" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>23</v>
+      </c>
+      <c r="B184" t="s">
+        <v>25</v>
+      </c>
+      <c r="C184" t="s">
+        <v>34</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>23</v>
+      </c>
+      <c r="B185" t="s">
+        <v>30</v>
+      </c>
+      <c r="C185" t="s">
+        <v>42</v>
+      </c>
+      <c r="D185" t="s">
+        <v>5</v>
+      </c>
+      <c r="E185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" t="s">
+        <v>29</v>
+      </c>
+      <c r="C186" t="s">
+        <v>37</v>
+      </c>
+      <c r="D186" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>23</v>
+      </c>
+      <c r="B187" t="s">
+        <v>24</v>
+      </c>
+      <c r="C187" t="s">
+        <v>36</v>
+      </c>
+      <c r="D187" t="s">
+        <v>44</v>
+      </c>
+      <c r="E187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" t="s">
+        <v>32</v>
+      </c>
+      <c r="C188" t="s">
+        <v>40</v>
+      </c>
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>23</v>
+      </c>
+      <c r="B189" t="s">
+        <v>31</v>
+      </c>
+      <c r="C189" t="s">
+        <v>39</v>
+      </c>
+      <c r="D189" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190" t="s">
+        <v>41</v>
+      </c>
+      <c r="C190" t="s">
+        <v>38</v>
+      </c>
+      <c r="D190" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>23</v>
+      </c>
+      <c r="B191" t="s">
+        <v>28</v>
+      </c>
+      <c r="C191" t="s">
+        <v>43</v>
+      </c>
+      <c r="D191" t="s">
+        <v>5</v>
+      </c>
+      <c r="E191" t="s">
         <v>5</v>
       </c>
     </row>

--- a/season/season-2324_csv.xlsx
+++ b/season/season-2324_csv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="46">
   <si>
     <t>Giornata</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>Empoli</t>
@@ -506,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:E195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,13 +537,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -551,10 +554,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -568,10 +571,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -585,16 +588,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -602,10 +605,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -619,13 +622,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -636,10 +639,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -653,13 +656,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -670,16 +673,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -687,13 +690,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -704,10 +707,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -721,16 +724,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -738,10 +741,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -755,10 +758,10 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -772,10 +775,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -789,10 +792,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -806,13 +809,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -823,16 +826,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -840,10 +843,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -857,13 +860,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -874,10 +877,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -891,10 +894,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -908,10 +911,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -925,16 +928,16 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -942,16 +945,16 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -959,10 +962,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
         <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -976,16 +979,16 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -993,16 +996,16 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1010,13 +1013,13 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
@@ -1027,16 +1030,16 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1044,10 +1047,10 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1061,10 +1064,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1078,10 +1081,10 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
@@ -1095,16 +1098,16 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1112,10 +1115,10 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -1129,10 +1132,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -1146,10 +1149,10 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1163,16 +1166,16 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1180,13 +1183,13 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -1197,16 +1200,16 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1214,10 +1217,10 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -1231,16 +1234,16 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1248,16 +1251,16 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
         <v>36</v>
       </c>
-      <c r="C44" t="s">
-        <v>35</v>
-      </c>
       <c r="D44" t="s">
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1265,10 +1268,10 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -1282,10 +1285,10 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -1299,13 +1302,13 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -1316,16 +1319,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
         <v>43</v>
       </c>
-      <c r="C48" t="s">
-        <v>42</v>
-      </c>
       <c r="D48" t="s">
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1333,13 +1336,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
@@ -1350,16 +1353,16 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1367,10 +1370,10 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -1384,16 +1387,16 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1401,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
@@ -1418,16 +1421,16 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1435,13 +1438,13 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s">
         <v>5</v>
@@ -1452,10 +1455,10 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -1469,16 +1472,16 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1486,10 +1489,10 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -1503,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -1520,16 +1523,16 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" t="s">
         <v>34</v>
       </c>
-      <c r="C60" t="s">
-        <v>33</v>
-      </c>
       <c r="D60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1537,10 +1540,10 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
@@ -1554,13 +1557,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
@@ -1571,16 +1574,16 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1588,13 +1591,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
@@ -1605,16 +1608,16 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1622,10 +1625,10 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s">
         <v>6</v>
@@ -1639,16 +1642,16 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1656,16 +1659,16 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1673,13 +1676,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E69" t="s">
         <v>5</v>
@@ -1690,16 +1693,16 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1707,16 +1710,16 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1724,16 +1727,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1741,10 +1744,10 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" t="s">
         <v>30</v>
-      </c>
-      <c r="C73" t="s">
-        <v>29</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -1758,10 +1761,10 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D74" t="s">
         <v>6</v>
@@ -1775,16 +1778,16 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D75" t="s">
         <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1792,13 +1795,13 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
@@ -1809,16 +1812,16 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1826,10 +1829,10 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D78" t="s">
         <v>6</v>
@@ -1843,10 +1846,10 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -1860,10 +1863,10 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
@@ -1877,10 +1880,10 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -1894,10 +1897,10 @@
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -1911,13 +1914,13 @@
         <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E83" t="s">
         <v>7</v>
@@ -1928,13 +1931,13 @@
         <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E84" t="s">
         <v>6</v>
@@ -1945,16 +1948,16 @@
         <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1962,10 +1965,10 @@
         <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D86" t="s">
         <v>6</v>
@@ -1979,10 +1982,10 @@
         <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D87" t="s">
         <v>6</v>
@@ -1996,16 +1999,16 @@
         <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D88" t="s">
         <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2013,13 +2016,13 @@
         <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E89" t="s">
         <v>5</v>
@@ -2030,10 +2033,10 @@
         <v>13</v>
       </c>
       <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
         <v>31</v>
-      </c>
-      <c r="C90" t="s">
-        <v>30</v>
       </c>
       <c r="D90" t="s">
         <v>5</v>
@@ -2047,13 +2050,13 @@
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E91" t="s">
         <v>6</v>
@@ -2064,16 +2067,16 @@
         <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2081,10 +2084,10 @@
         <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D93" t="s">
         <v>5</v>
@@ -2098,13 +2101,13 @@
         <v>14</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E94" t="s">
         <v>5</v>
@@ -2115,16 +2118,16 @@
         <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2132,10 +2135,10 @@
         <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -2149,10 +2152,10 @@
         <v>14</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
@@ -2166,16 +2169,16 @@
         <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D98" t="s">
         <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2183,10 +2186,10 @@
         <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D99" t="s">
         <v>6</v>
@@ -2200,13 +2203,13 @@
         <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E100" t="s">
         <v>7</v>
@@ -2217,16 +2220,16 @@
         <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D101" t="s">
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2234,16 +2237,16 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D102" t="s">
         <v>5</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2251,13 +2254,13 @@
         <v>15</v>
       </c>
       <c r="B103" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" t="s">
         <v>41</v>
       </c>
-      <c r="C103" t="s">
-        <v>40</v>
-      </c>
       <c r="D103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E103" t="s">
         <v>6</v>
@@ -2268,10 +2271,10 @@
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" t="s">
         <v>5</v>
@@ -2285,13 +2288,13 @@
         <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E105" t="s">
         <v>5</v>
@@ -2302,10 +2305,10 @@
         <v>15</v>
       </c>
       <c r="B106" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" t="s">
         <v>35</v>
-      </c>
-      <c r="C106" t="s">
-        <v>34</v>
       </c>
       <c r="D106" t="s">
         <v>5</v>
@@ -2319,10 +2322,10 @@
         <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D107" t="s">
         <v>6</v>
@@ -2336,10 +2339,10 @@
         <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D108" t="s">
         <v>6</v>
@@ -2353,13 +2356,13 @@
         <v>15</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E109" t="s">
         <v>5</v>
@@ -2370,10 +2373,10 @@
         <v>15</v>
       </c>
       <c r="B110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" t="s">
         <v>25</v>
-      </c>
-      <c r="C110" t="s">
-        <v>24</v>
       </c>
       <c r="D110" t="s">
         <v>6</v>
@@ -2387,10 +2390,10 @@
         <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D111" t="s">
         <v>6</v>
@@ -2404,10 +2407,10 @@
         <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D112" t="s">
         <v>6</v>
@@ -2421,16 +2424,16 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D113" t="s">
         <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2438,10 +2441,10 @@
         <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D114" t="s">
         <v>6</v>
@@ -2455,10 +2458,10 @@
         <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D115" t="s">
         <v>6</v>
@@ -2472,10 +2475,10 @@
         <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D116" t="s">
         <v>5</v>
@@ -2489,13 +2492,13 @@
         <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E117" t="s">
         <v>5</v>
@@ -2506,10 +2509,10 @@
         <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D118" t="s">
         <v>6</v>
@@ -2523,10 +2526,10 @@
         <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D119" t="s">
         <v>5</v>
@@ -2540,16 +2543,16 @@
         <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2557,16 +2560,16 @@
         <v>16</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C121" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D121" t="s">
         <v>6</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2574,10 +2577,10 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D122" t="s">
         <v>6</v>
@@ -2591,10 +2594,10 @@
         <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D123" t="s">
         <v>5</v>
@@ -2608,16 +2611,16 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D124" t="s">
         <v>5</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2625,10 +2628,10 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D125" t="s">
         <v>5</v>
@@ -2642,10 +2645,10 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D126" t="s">
         <v>7</v>
@@ -2659,10 +2662,10 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C127" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D127" t="s">
         <v>6</v>
@@ -2676,10 +2679,10 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D128" t="s">
         <v>7</v>
@@ -2693,10 +2696,10 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" t="s">
         <v>5</v>
@@ -2710,10 +2713,10 @@
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D130" t="s">
         <v>6</v>
@@ -2727,16 +2730,16 @@
         <v>17</v>
       </c>
       <c r="B131" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" t="s">
         <v>33</v>
       </c>
-      <c r="C131" t="s">
-        <v>32</v>
-      </c>
       <c r="D131" t="s">
         <v>6</v>
       </c>
       <c r="E131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2744,10 +2747,10 @@
         <v>18</v>
       </c>
       <c r="B132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D132" t="s">
         <v>5</v>
@@ -2761,10 +2764,10 @@
         <v>18</v>
       </c>
       <c r="B133" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C133" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D133" t="s">
         <v>5</v>
@@ -2778,16 +2781,16 @@
         <v>18</v>
       </c>
       <c r="B134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D134" t="s">
         <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2795,10 +2798,10 @@
         <v>18</v>
       </c>
       <c r="B135" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C135" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D135" t="s">
         <v>7</v>
@@ -2812,10 +2815,10 @@
         <v>18</v>
       </c>
       <c r="B136" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D136" t="s">
         <v>5</v>
@@ -2829,16 +2832,16 @@
         <v>18</v>
       </c>
       <c r="B137" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C137" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D137" t="s">
         <v>7</v>
       </c>
       <c r="E137" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2846,10 +2849,10 @@
         <v>18</v>
       </c>
       <c r="B138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
@@ -2863,10 +2866,10 @@
         <v>18</v>
       </c>
       <c r="B139" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139" t="s">
         <v>29</v>
-      </c>
-      <c r="C139" t="s">
-        <v>28</v>
       </c>
       <c r="D139" t="s">
         <v>5</v>
@@ -2880,13 +2883,13 @@
         <v>18</v>
       </c>
       <c r="B140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E140" t="s">
         <v>7</v>
@@ -2897,16 +2900,16 @@
         <v>18</v>
       </c>
       <c r="B141" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C141" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D141" t="s">
         <v>7</v>
       </c>
       <c r="E141" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2914,16 +2917,16 @@
         <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D142" t="s">
         <v>5</v>
       </c>
       <c r="E142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2931,10 +2934,10 @@
         <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D143" t="s">
         <v>5</v>
@@ -2948,10 +2951,10 @@
         <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
@@ -2965,16 +2968,16 @@
         <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
       </c>
       <c r="E145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2982,16 +2985,16 @@
         <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D146" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E146" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2999,16 +3002,16 @@
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C147" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D147" t="s">
         <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3016,10 +3019,10 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D148" t="s">
         <v>5</v>
@@ -3033,10 +3036,10 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D149" t="s">
         <v>5</v>
@@ -3050,10 +3053,10 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C150" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D150" t="s">
         <v>5</v>
@@ -3067,10 +3070,10 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D151" t="s">
         <v>6</v>
@@ -3084,10 +3087,10 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D152" t="s">
         <v>5</v>
@@ -3101,10 +3104,10 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C153" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D153" t="s">
         <v>6</v>
@@ -3118,10 +3121,10 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C154" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D154" t="s">
         <v>6</v>
@@ -3135,16 +3138,16 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C155" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D155" t="s">
         <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3152,16 +3155,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D156" t="s">
         <v>7</v>
       </c>
       <c r="E156" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3169,16 +3172,16 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D157" t="s">
         <v>5</v>
       </c>
       <c r="E157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3186,10 +3189,10 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D158" t="s">
         <v>6</v>
@@ -3203,16 +3206,16 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D159" t="s">
         <v>6</v>
       </c>
       <c r="E159" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3220,13 +3223,13 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D160" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E160" t="s">
         <v>6</v>
@@ -3237,10 +3240,10 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D161" t="s">
         <v>8</v>
@@ -3254,13 +3257,13 @@
         <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C162" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D162" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E162" t="s">
         <v>6</v>
@@ -3271,10 +3274,10 @@
         <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C163" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D163" t="s">
         <v>5</v>
@@ -3288,13 +3291,13 @@
         <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C164" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E164" t="s">
         <v>5</v>
@@ -3305,10 +3308,10 @@
         <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C165" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D165" t="s">
         <v>6</v>
@@ -3322,10 +3325,10 @@
         <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D166" t="s">
         <v>5</v>
@@ -3339,16 +3342,16 @@
         <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C167" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D167" t="s">
         <v>5</v>
       </c>
       <c r="E167" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3356,10 +3359,10 @@
         <v>21</v>
       </c>
       <c r="B168" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" t="s">
         <v>32</v>
-      </c>
-      <c r="C168" t="s">
-        <v>31</v>
       </c>
       <c r="D168" t="s">
         <v>5</v>
@@ -3373,16 +3376,16 @@
         <v>21</v>
       </c>
       <c r="B169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D169" t="s">
         <v>6</v>
       </c>
       <c r="E169" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3390,16 +3393,16 @@
         <v>21</v>
       </c>
       <c r="B170" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C170" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D170" t="s">
         <v>6</v>
       </c>
       <c r="E170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3407,16 +3410,16 @@
         <v>21</v>
       </c>
       <c r="B171" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D171" t="s">
         <v>6</v>
       </c>
       <c r="E171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3424,16 +3427,16 @@
         <v>22</v>
       </c>
       <c r="B172" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C172" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D172" t="s">
         <v>5</v>
       </c>
       <c r="E172" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3441,16 +3444,16 @@
         <v>22</v>
       </c>
       <c r="B173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D173" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E173" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3458,10 +3461,10 @@
         <v>22</v>
       </c>
       <c r="B174" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D174" t="s">
         <v>5</v>
@@ -3475,10 +3478,10 @@
         <v>22</v>
       </c>
       <c r="B175" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C175" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
@@ -3492,16 +3495,16 @@
         <v>22</v>
       </c>
       <c r="B176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C176" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D176" t="s">
         <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3509,16 +3512,16 @@
         <v>22</v>
       </c>
       <c r="B177" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C177" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D177" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E177" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3526,16 +3529,16 @@
         <v>22</v>
       </c>
       <c r="B178" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D178" t="s">
         <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3543,13 +3546,13 @@
         <v>22</v>
       </c>
       <c r="B179" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C179" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D179" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E179" t="s">
         <v>5</v>
@@ -3560,16 +3563,16 @@
         <v>22</v>
       </c>
       <c r="B180" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C180" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D180" t="s">
         <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3577,16 +3580,16 @@
         <v>22</v>
       </c>
       <c r="B181" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C181" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D181" t="s">
         <v>5</v>
       </c>
       <c r="E181" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3594,10 +3597,10 @@
         <v>23</v>
       </c>
       <c r="B182" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C182" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D182" t="s">
         <v>5</v>
@@ -3611,10 +3614,10 @@
         <v>23</v>
       </c>
       <c r="B183" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C183" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D183" t="s">
         <v>6</v>
@@ -3628,10 +3631,10 @@
         <v>23</v>
       </c>
       <c r="B184" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C184" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D184" t="s">
         <v>6</v>
@@ -3645,10 +3648,10 @@
         <v>23</v>
       </c>
       <c r="B185" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C185" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D185" t="s">
         <v>5</v>
@@ -3662,16 +3665,16 @@
         <v>23</v>
       </c>
       <c r="B186" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C186" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D186" t="s">
         <v>5</v>
       </c>
       <c r="E186" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3679,13 +3682,13 @@
         <v>23</v>
       </c>
       <c r="B187" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C187" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D187" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E187" t="s">
         <v>7</v>
@@ -3696,16 +3699,16 @@
         <v>23</v>
       </c>
       <c r="B188" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C188" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D188" t="s">
         <v>7</v>
       </c>
       <c r="E188" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3713,10 +3716,10 @@
         <v>23</v>
       </c>
       <c r="B189" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C189" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D189" t="s">
         <v>5</v>
@@ -3730,10 +3733,10 @@
         <v>23</v>
       </c>
       <c r="B190" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C190" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D190" t="s">
         <v>5</v>
@@ -3747,16 +3750,84 @@
         <v>23</v>
       </c>
       <c r="B191" t="s">
+        <v>29</v>
+      </c>
+      <c r="C191" t="s">
+        <v>44</v>
+      </c>
+      <c r="D191" t="s">
+        <v>5</v>
+      </c>
+      <c r="E191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
+      <c r="B192" t="s">
+        <v>27</v>
+      </c>
+      <c r="C192" t="s">
+        <v>33</v>
+      </c>
+      <c r="D192" t="s">
+        <v>45</v>
+      </c>
+      <c r="E192" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>24</v>
+      </c>
+      <c r="B193" t="s">
+        <v>41</v>
+      </c>
+      <c r="C193" t="s">
+        <v>42</v>
+      </c>
+      <c r="D193" t="s">
+        <v>6</v>
+      </c>
+      <c r="E193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>24</v>
+      </c>
+      <c r="B194" t="s">
+        <v>36</v>
+      </c>
+      <c r="C194" t="s">
+        <v>25</v>
+      </c>
+      <c r="D194" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>24</v>
+      </c>
+      <c r="B195" t="s">
+        <v>35</v>
+      </c>
+      <c r="C195" t="s">
         <v>28</v>
       </c>
-      <c r="C191" t="s">
-        <v>43</v>
-      </c>
-      <c r="D191" t="s">
-        <v>5</v>
-      </c>
-      <c r="E191" t="s">
-        <v>5</v>
+      <c r="D195" t="s">
+        <v>5</v>
+      </c>
+      <c r="E195" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/season/season-2324_csv.xlsx
+++ b/season/season-2324_csv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="137">
   <si>
     <t>Giornata</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>2024-02-14</t>
+  </si>
+  <si>
+    <t>2024-02-22</t>
   </si>
   <si>
     <t>2024-01-26</t>
@@ -779,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G248"/>
+  <dimension ref="A1:G249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -816,19 +819,19 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -839,10 +842,10 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -851,7 +854,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -862,10 +865,10 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -874,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -885,19 +888,19 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -908,10 +911,10 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -920,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -931,19 +934,19 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -954,10 +957,10 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -966,7 +969,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -977,19 +980,19 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1000,19 +1003,19 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1023,19 +1026,19 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1046,10 +1049,10 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1058,7 +1061,7 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1069,19 +1072,19 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1092,10 +1095,10 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1104,7 +1107,7 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1115,10 +1118,10 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1127,7 +1130,7 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1138,10 +1141,10 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1150,7 +1153,7 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1161,10 +1164,10 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -1173,7 +1176,7 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1184,19 +1187,19 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1207,19 +1210,19 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1230,10 +1233,10 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -1242,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1253,19 +1256,19 @@
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1276,10 +1279,10 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -1288,7 +1291,7 @@
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1299,10 +1302,10 @@
         <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -1311,7 +1314,7 @@
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1322,10 +1325,10 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -1334,7 +1337,7 @@
         <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1345,19 +1348,19 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1368,19 +1371,19 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1391,11 +1394,11 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" t="s">
         <v>130</v>
       </c>
-      <c r="D27" t="s">
-        <v>129</v>
-      </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1414,19 +1417,19 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1437,19 +1440,19 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1460,19 +1463,19 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1483,19 +1486,19 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1506,10 +1509,10 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1518,7 +1521,7 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1529,10 +1532,10 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -1541,7 +1544,7 @@
         <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1552,10 +1555,10 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -1564,7 +1567,7 @@
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1575,19 +1578,19 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1598,10 +1601,10 @@
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -1610,7 +1613,7 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1621,10 +1624,10 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -1633,7 +1636,7 @@
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1644,10 +1647,10 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1656,7 +1659,7 @@
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1667,19 +1670,19 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1690,19 +1693,19 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1713,19 +1716,19 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1736,10 +1739,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
@@ -1748,7 +1751,7 @@
         <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1759,19 +1762,19 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1782,19 +1785,19 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" t="s">
         <v>126</v>
       </c>
-      <c r="D44" t="s">
-        <v>125</v>
-      </c>
       <c r="E44" t="s">
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1805,10 +1808,10 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -1817,7 +1820,7 @@
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1828,10 +1831,10 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
@@ -1840,7 +1843,7 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1851,19 +1854,19 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1874,19 +1877,19 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" t="s">
         <v>133</v>
       </c>
-      <c r="D48" t="s">
-        <v>132</v>
-      </c>
       <c r="E48" t="s">
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1897,19 +1900,19 @@
         <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F49" t="s">
         <v>8</v>
       </c>
       <c r="G49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1920,19 +1923,19 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1943,10 +1946,10 @@
         <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -1955,7 +1958,7 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1966,19 +1969,19 @@
         <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1989,10 +1992,10 @@
         <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
@@ -2001,7 +2004,7 @@
         <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2012,19 +2015,19 @@
         <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2035,19 +2038,19 @@
         <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2058,10 +2061,10 @@
         <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
@@ -2070,7 +2073,7 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2081,19 +2084,19 @@
         <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2104,10 +2107,10 @@
         <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
@@ -2116,7 +2119,7 @@
         <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2127,10 +2130,10 @@
         <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
@@ -2139,7 +2142,7 @@
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2150,19 +2153,19 @@
         <v>49</v>
       </c>
       <c r="C60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" t="s">
         <v>124</v>
       </c>
-      <c r="D60" t="s">
-        <v>123</v>
-      </c>
       <c r="E60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G60" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2173,10 +2176,10 @@
         <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
@@ -2185,7 +2188,7 @@
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2196,19 +2199,19 @@
         <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2219,19 +2222,19 @@
         <v>50</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D63" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2242,19 +2245,19 @@
         <v>50</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2265,19 +2268,19 @@
         <v>51</v>
       </c>
       <c r="C65" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2288,10 +2291,10 @@
         <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D66" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
@@ -2300,7 +2303,7 @@
         <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2311,19 +2314,19 @@
         <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2334,19 +2337,19 @@
         <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D68" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2357,19 +2360,19 @@
         <v>52</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2380,19 +2383,19 @@
         <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D70" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2403,19 +2406,19 @@
         <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G71" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2426,19 +2429,19 @@
         <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D72" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E72" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G72" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2449,11 +2452,11 @@
         <v>53</v>
       </c>
       <c r="C73" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" t="s">
         <v>120</v>
       </c>
-      <c r="D73" t="s">
-        <v>119</v>
-      </c>
       <c r="E73" t="s">
         <v>7</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2472,10 +2475,10 @@
         <v>54</v>
       </c>
       <c r="C74" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D74" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -2484,7 +2487,7 @@
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2495,19 +2498,19 @@
         <v>54</v>
       </c>
       <c r="C75" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G75" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2518,19 +2521,19 @@
         <v>54</v>
       </c>
       <c r="C76" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D76" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F76" t="s">
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2541,19 +2544,19 @@
         <v>55</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D77" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G77" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2564,10 +2567,10 @@
         <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D78" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
@@ -2576,7 +2579,7 @@
         <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2587,10 +2590,10 @@
         <v>55</v>
       </c>
       <c r="C79" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D79" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
@@ -2599,7 +2602,7 @@
         <v>8</v>
       </c>
       <c r="G79" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2610,10 +2613,10 @@
         <v>55</v>
       </c>
       <c r="C80" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D80" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E80" t="s">
         <v>7</v>
@@ -2622,7 +2625,7 @@
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2633,10 +2636,10 @@
         <v>55</v>
       </c>
       <c r="C81" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D81" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
@@ -2645,7 +2648,7 @@
         <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2656,10 +2659,10 @@
         <v>56</v>
       </c>
       <c r="C82" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
@@ -2668,7 +2671,7 @@
         <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2679,19 +2682,19 @@
         <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D83" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E83" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2702,19 +2705,19 @@
         <v>56</v>
       </c>
       <c r="C84" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D84" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E84" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F84" t="s">
         <v>8</v>
       </c>
       <c r="G84" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2725,19 +2728,19 @@
         <v>57</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G85" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2748,10 +2751,10 @@
         <v>57</v>
       </c>
       <c r="C86" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D86" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
@@ -2760,7 +2763,7 @@
         <v>7</v>
       </c>
       <c r="G86" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2771,10 +2774,10 @@
         <v>57</v>
       </c>
       <c r="C87" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D87" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
@@ -2783,7 +2786,7 @@
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2794,19 +2797,19 @@
         <v>57</v>
       </c>
       <c r="C88" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D88" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G88" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2817,19 +2820,19 @@
         <v>57</v>
       </c>
       <c r="C89" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D89" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E89" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F89" t="s">
         <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2840,11 +2843,11 @@
         <v>58</v>
       </c>
       <c r="C90" t="s">
+        <v>122</v>
+      </c>
+      <c r="D90" t="s">
         <v>121</v>
       </c>
-      <c r="D90" t="s">
-        <v>120</v>
-      </c>
       <c r="E90" t="s">
         <v>7</v>
       </c>
@@ -2852,7 +2855,7 @@
         <v>7</v>
       </c>
       <c r="G90" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2863,19 +2866,19 @@
         <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D91" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E91" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F91" t="s">
         <v>8</v>
       </c>
       <c r="G91" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2886,19 +2889,19 @@
         <v>59</v>
       </c>
       <c r="C92" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D92" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E92" t="s">
         <v>7</v>
       </c>
       <c r="F92" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G92" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2909,10 +2912,10 @@
         <v>60</v>
       </c>
       <c r="C93" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E93" t="s">
         <v>7</v>
@@ -2921,7 +2924,7 @@
         <v>7</v>
       </c>
       <c r="G93" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2932,19 +2935,19 @@
         <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F94" t="s">
         <v>7</v>
       </c>
       <c r="G94" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2955,19 +2958,19 @@
         <v>60</v>
       </c>
       <c r="C95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D95" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E95" t="s">
         <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G95" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2978,10 +2981,10 @@
         <v>61</v>
       </c>
       <c r="C96" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D96" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
@@ -2990,7 +2993,7 @@
         <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3001,10 +3004,10 @@
         <v>61</v>
       </c>
       <c r="C97" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D97" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E97" t="s">
         <v>7</v>
@@ -3013,7 +3016,7 @@
         <v>7</v>
       </c>
       <c r="G97" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3024,19 +3027,19 @@
         <v>61</v>
       </c>
       <c r="C98" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D98" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E98" t="s">
         <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G98" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3047,10 +3050,10 @@
         <v>61</v>
       </c>
       <c r="C99" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D99" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -3059,7 +3062,7 @@
         <v>8</v>
       </c>
       <c r="G99" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3070,19 +3073,19 @@
         <v>62</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F100" t="s">
         <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3093,19 +3096,19 @@
         <v>62</v>
       </c>
       <c r="C101" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D101" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E101" t="s">
         <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G101" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3116,19 +3119,19 @@
         <v>63</v>
       </c>
       <c r="C102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D102" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E102" t="s">
         <v>7</v>
       </c>
       <c r="F102" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3139,19 +3142,19 @@
         <v>64</v>
       </c>
       <c r="C103" t="s">
+        <v>132</v>
+      </c>
+      <c r="D103" t="s">
         <v>131</v>
       </c>
-      <c r="D103" t="s">
-        <v>130</v>
-      </c>
       <c r="E103" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F103" t="s">
         <v>8</v>
       </c>
       <c r="G103" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3162,10 +3165,10 @@
         <v>64</v>
       </c>
       <c r="C104" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D104" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E104" t="s">
         <v>7</v>
@@ -3174,7 +3177,7 @@
         <v>8</v>
       </c>
       <c r="G104" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3185,19 +3188,19 @@
         <v>64</v>
       </c>
       <c r="C105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D105" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E105" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F105" t="s">
         <v>7</v>
       </c>
       <c r="G105" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3208,10 +3211,10 @@
         <v>65</v>
       </c>
       <c r="C106" t="s">
+        <v>126</v>
+      </c>
+      <c r="D106" t="s">
         <v>125</v>
-      </c>
-      <c r="D106" t="s">
-        <v>124</v>
       </c>
       <c r="E106" t="s">
         <v>7</v>
@@ -3220,7 +3223,7 @@
         <v>9</v>
       </c>
       <c r="G106" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3231,10 +3234,10 @@
         <v>65</v>
       </c>
       <c r="C107" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D107" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
@@ -3243,7 +3246,7 @@
         <v>7</v>
       </c>
       <c r="G107" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3254,10 +3257,10 @@
         <v>65</v>
       </c>
       <c r="C108" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D108" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E108" t="s">
         <v>8</v>
@@ -3266,7 +3269,7 @@
         <v>7</v>
       </c>
       <c r="G108" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3277,19 +3280,19 @@
         <v>65</v>
       </c>
       <c r="C109" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D109" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E109" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F109" t="s">
         <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3300,11 +3303,11 @@
         <v>66</v>
       </c>
       <c r="C110" t="s">
+        <v>116</v>
+      </c>
+      <c r="D110" t="s">
         <v>115</v>
       </c>
-      <c r="D110" t="s">
-        <v>114</v>
-      </c>
       <c r="E110" t="s">
         <v>8</v>
       </c>
@@ -3312,7 +3315,7 @@
         <v>7</v>
       </c>
       <c r="G110" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3323,10 +3326,10 @@
         <v>66</v>
       </c>
       <c r="C111" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D111" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
@@ -3335,7 +3338,7 @@
         <v>7</v>
       </c>
       <c r="G111" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3346,10 +3349,10 @@
         <v>67</v>
       </c>
       <c r="C112" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D112" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E112" t="s">
         <v>8</v>
@@ -3358,7 +3361,7 @@
         <v>8</v>
       </c>
       <c r="G112" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3369,19 +3372,19 @@
         <v>67</v>
       </c>
       <c r="C113" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D113" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E113" t="s">
         <v>7</v>
       </c>
       <c r="F113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G113" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3392,10 +3395,10 @@
         <v>68</v>
       </c>
       <c r="C114" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D114" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E114" t="s">
         <v>8</v>
@@ -3404,7 +3407,7 @@
         <v>8</v>
       </c>
       <c r="G114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3415,10 +3418,10 @@
         <v>68</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D115" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E115" t="s">
         <v>8</v>
@@ -3427,7 +3430,7 @@
         <v>7</v>
       </c>
       <c r="G115" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3438,10 +3441,10 @@
         <v>68</v>
       </c>
       <c r="C116" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D116" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E116" t="s">
         <v>7</v>
@@ -3450,7 +3453,7 @@
         <v>7</v>
       </c>
       <c r="G116" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3461,19 +3464,19 @@
         <v>69</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D117" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E117" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F117" t="s">
         <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3484,10 +3487,10 @@
         <v>69</v>
       </c>
       <c r="C118" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D118" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
@@ -3496,7 +3499,7 @@
         <v>7</v>
       </c>
       <c r="G118" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3507,10 +3510,10 @@
         <v>69</v>
       </c>
       <c r="C119" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D119" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E119" t="s">
         <v>7</v>
@@ -3519,7 +3522,7 @@
         <v>7</v>
       </c>
       <c r="G119" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3530,19 +3533,19 @@
         <v>69</v>
       </c>
       <c r="C120" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D120" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F120" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G120" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3553,19 +3556,19 @@
         <v>69</v>
       </c>
       <c r="C121" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D121" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E121" t="s">
         <v>8</v>
       </c>
       <c r="F121" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G121" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3576,10 +3579,10 @@
         <v>70</v>
       </c>
       <c r="C122" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D122" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E122" t="s">
         <v>8</v>
@@ -3588,7 +3591,7 @@
         <v>7</v>
       </c>
       <c r="G122" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3599,10 +3602,10 @@
         <v>70</v>
       </c>
       <c r="C123" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D123" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E123" t="s">
         <v>7</v>
@@ -3611,7 +3614,7 @@
         <v>8</v>
       </c>
       <c r="G123" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3622,19 +3625,19 @@
         <v>70</v>
       </c>
       <c r="C124" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D124" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E124" t="s">
         <v>7</v>
       </c>
       <c r="F124" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G124" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3645,10 +3648,10 @@
         <v>71</v>
       </c>
       <c r="C125" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E125" t="s">
         <v>7</v>
@@ -3657,7 +3660,7 @@
         <v>7</v>
       </c>
       <c r="G125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3668,10 +3671,10 @@
         <v>71</v>
       </c>
       <c r="C126" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D126" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E126" t="s">
         <v>9</v>
@@ -3680,7 +3683,7 @@
         <v>10</v>
       </c>
       <c r="G126" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3691,10 +3694,10 @@
         <v>71</v>
       </c>
       <c r="C127" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D127" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
@@ -3703,7 +3706,7 @@
         <v>7</v>
       </c>
       <c r="G127" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3714,10 +3717,10 @@
         <v>71</v>
       </c>
       <c r="C128" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D128" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
@@ -3726,7 +3729,7 @@
         <v>7</v>
       </c>
       <c r="G128" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3737,10 +3740,10 @@
         <v>71</v>
       </c>
       <c r="C129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D129" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E129" t="s">
         <v>7</v>
@@ -3749,7 +3752,7 @@
         <v>7</v>
       </c>
       <c r="G129" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3760,10 +3763,10 @@
         <v>72</v>
       </c>
       <c r="C130" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D130" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
@@ -3772,7 +3775,7 @@
         <v>8</v>
       </c>
       <c r="G130" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3783,19 +3786,19 @@
         <v>72</v>
       </c>
       <c r="C131" t="s">
+        <v>124</v>
+      </c>
+      <c r="D131" t="s">
         <v>123</v>
       </c>
-      <c r="D131" t="s">
-        <v>122</v>
-      </c>
       <c r="E131" t="s">
         <v>8</v>
       </c>
       <c r="F131" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G131" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3806,10 +3809,10 @@
         <v>73</v>
       </c>
       <c r="C132" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D132" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E132" t="s">
         <v>7</v>
@@ -3818,7 +3821,7 @@
         <v>8</v>
       </c>
       <c r="G132" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3829,10 +3832,10 @@
         <v>74</v>
       </c>
       <c r="C133" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D133" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E133" t="s">
         <v>7</v>
@@ -3841,7 +3844,7 @@
         <v>7</v>
       </c>
       <c r="G133" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3852,19 +3855,19 @@
         <v>74</v>
       </c>
       <c r="C134" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D134" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E134" t="s">
         <v>7</v>
       </c>
       <c r="F134" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G134" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3875,10 +3878,10 @@
         <v>74</v>
       </c>
       <c r="C135" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D135" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E135" t="s">
         <v>9</v>
@@ -3887,7 +3890,7 @@
         <v>7</v>
       </c>
       <c r="G135" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3898,10 +3901,10 @@
         <v>75</v>
       </c>
       <c r="C136" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D136" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E136" t="s">
         <v>7</v>
@@ -3910,7 +3913,7 @@
         <v>7</v>
       </c>
       <c r="G136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3921,19 +3924,19 @@
         <v>75</v>
       </c>
       <c r="C137" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D137" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E137" t="s">
         <v>9</v>
       </c>
       <c r="F137" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G137" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3944,10 +3947,10 @@
         <v>75</v>
       </c>
       <c r="C138" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D138" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E138" t="s">
         <v>9</v>
@@ -3956,7 +3959,7 @@
         <v>9</v>
       </c>
       <c r="G138" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3967,11 +3970,11 @@
         <v>75</v>
       </c>
       <c r="C139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D139" t="s">
         <v>119</v>
       </c>
-      <c r="D139" t="s">
-        <v>118</v>
-      </c>
       <c r="E139" t="s">
         <v>7</v>
       </c>
@@ -3979,7 +3982,7 @@
         <v>8</v>
       </c>
       <c r="G139" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3990,19 +3993,19 @@
         <v>75</v>
       </c>
       <c r="C140" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D140" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E140" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F140" t="s">
         <v>9</v>
       </c>
       <c r="G140" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4013,19 +4016,19 @@
         <v>76</v>
       </c>
       <c r="C141" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D141" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E141" t="s">
         <v>9</v>
       </c>
       <c r="F141" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G141" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4036,19 +4039,19 @@
         <v>77</v>
       </c>
       <c r="C142" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D142" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E142" t="s">
         <v>7</v>
       </c>
       <c r="F142" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G142" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4059,10 +4062,10 @@
         <v>78</v>
       </c>
       <c r="C143" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D143" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E143" t="s">
         <v>7</v>
@@ -4071,7 +4074,7 @@
         <v>7</v>
       </c>
       <c r="G143" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4082,10 +4085,10 @@
         <v>78</v>
       </c>
       <c r="C144" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D144" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E144" t="s">
         <v>9</v>
@@ -4094,7 +4097,7 @@
         <v>8</v>
       </c>
       <c r="G144" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4105,19 +4108,19 @@
         <v>78</v>
       </c>
       <c r="C145" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D145" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E145" t="s">
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G145" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4128,19 +4131,19 @@
         <v>79</v>
       </c>
       <c r="C146" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D146" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E146" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F146" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G146" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4151,19 +4154,19 @@
         <v>79</v>
       </c>
       <c r="C147" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D147" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E147" t="s">
         <v>7</v>
       </c>
       <c r="F147" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G147" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4174,10 +4177,10 @@
         <v>79</v>
       </c>
       <c r="C148" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D148" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E148" t="s">
         <v>7</v>
@@ -4186,7 +4189,7 @@
         <v>8</v>
       </c>
       <c r="G148" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4197,10 +4200,10 @@
         <v>79</v>
       </c>
       <c r="C149" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D149" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E149" t="s">
         <v>7</v>
@@ -4209,7 +4212,7 @@
         <v>7</v>
       </c>
       <c r="G149" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4220,10 +4223,10 @@
         <v>80</v>
       </c>
       <c r="C150" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D150" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E150" t="s">
         <v>7</v>
@@ -4232,7 +4235,7 @@
         <v>7</v>
       </c>
       <c r="G150" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4243,10 +4246,10 @@
         <v>80</v>
       </c>
       <c r="C151" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D151" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E151" t="s">
         <v>8</v>
@@ -4255,7 +4258,7 @@
         <v>7</v>
       </c>
       <c r="G151" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4266,10 +4269,10 @@
         <v>81</v>
       </c>
       <c r="C152" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D152" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E152" t="s">
         <v>7</v>
@@ -4278,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="G152" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4289,10 +4292,10 @@
         <v>82</v>
       </c>
       <c r="C153" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D153" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E153" t="s">
         <v>8</v>
@@ -4301,7 +4304,7 @@
         <v>7</v>
       </c>
       <c r="G153" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4312,10 +4315,10 @@
         <v>82</v>
       </c>
       <c r="C154" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D154" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E154" t="s">
         <v>8</v>
@@ -4324,7 +4327,7 @@
         <v>7</v>
       </c>
       <c r="G154" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4335,19 +4338,19 @@
         <v>82</v>
       </c>
       <c r="C155" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D155" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E155" t="s">
         <v>7</v>
       </c>
       <c r="F155" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G155" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4358,19 +4361,19 @@
         <v>83</v>
       </c>
       <c r="C156" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D156" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E156" t="s">
         <v>9</v>
       </c>
       <c r="F156" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G156" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4381,19 +4384,19 @@
         <v>83</v>
       </c>
       <c r="C157" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D157" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E157" t="s">
         <v>7</v>
       </c>
       <c r="F157" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G157" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4404,10 +4407,10 @@
         <v>83</v>
       </c>
       <c r="C158" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D158" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E158" t="s">
         <v>8</v>
@@ -4416,7 +4419,7 @@
         <v>8</v>
       </c>
       <c r="G158" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4427,19 +4430,19 @@
         <v>83</v>
       </c>
       <c r="C159" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D159" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
       </c>
       <c r="F159" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G159" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4450,19 +4453,19 @@
         <v>83</v>
       </c>
       <c r="C160" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D160" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E160" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F160" t="s">
         <v>8</v>
       </c>
       <c r="G160" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4473,10 +4476,10 @@
         <v>84</v>
       </c>
       <c r="C161" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D161" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E161" t="s">
         <v>10</v>
@@ -4485,7 +4488,7 @@
         <v>7</v>
       </c>
       <c r="G161" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4496,19 +4499,19 @@
         <v>85</v>
       </c>
       <c r="C162" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D162" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E162" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F162" t="s">
         <v>8</v>
       </c>
       <c r="G162" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4519,10 +4522,10 @@
         <v>85</v>
       </c>
       <c r="C163" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D163" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E163" t="s">
         <v>7</v>
@@ -4531,7 +4534,7 @@
         <v>8</v>
       </c>
       <c r="G163" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4542,19 +4545,19 @@
         <v>85</v>
       </c>
       <c r="C164" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D164" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E164" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F164" t="s">
         <v>7</v>
       </c>
       <c r="G164" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4565,10 +4568,10 @@
         <v>85</v>
       </c>
       <c r="C165" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D165" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E165" t="s">
         <v>8</v>
@@ -4577,7 +4580,7 @@
         <v>8</v>
       </c>
       <c r="G165" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4588,10 +4591,10 @@
         <v>86</v>
       </c>
       <c r="C166" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D166" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E166" t="s">
         <v>7</v>
@@ -4600,7 +4603,7 @@
         <v>8</v>
       </c>
       <c r="G166" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4611,19 +4614,19 @@
         <v>86</v>
       </c>
       <c r="C167" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D167" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E167" t="s">
         <v>7</v>
       </c>
       <c r="F167" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G167" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4634,11 +4637,11 @@
         <v>86</v>
       </c>
       <c r="C168" t="s">
+        <v>123</v>
+      </c>
+      <c r="D168" t="s">
         <v>122</v>
       </c>
-      <c r="D168" t="s">
-        <v>121</v>
-      </c>
       <c r="E168" t="s">
         <v>7</v>
       </c>
@@ -4646,7 +4649,7 @@
         <v>7</v>
       </c>
       <c r="G168" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4657,19 +4660,19 @@
         <v>86</v>
       </c>
       <c r="C169" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D169" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E169" t="s">
         <v>8</v>
       </c>
       <c r="F169" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G169" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4680,19 +4683,19 @@
         <v>86</v>
       </c>
       <c r="C170" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D170" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E170" t="s">
         <v>8</v>
       </c>
       <c r="F170" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G170" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4703,19 +4706,19 @@
         <v>86</v>
       </c>
       <c r="C171" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D171" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E171" t="s">
         <v>8</v>
       </c>
       <c r="F171" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G171" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4726,19 +4729,19 @@
         <v>87</v>
       </c>
       <c r="C172" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D172" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E172" t="s">
         <v>7</v>
       </c>
       <c r="F172" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G172" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4749,19 +4752,19 @@
         <v>87</v>
       </c>
       <c r="C173" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D173" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E173" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F173" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G173" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4772,10 +4775,10 @@
         <v>87</v>
       </c>
       <c r="C174" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D174" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E174" t="s">
         <v>7</v>
@@ -4784,7 +4787,7 @@
         <v>7</v>
       </c>
       <c r="G174" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4795,10 +4798,10 @@
         <v>87</v>
       </c>
       <c r="C175" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D175" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E175" t="s">
         <v>9</v>
@@ -4807,7 +4810,7 @@
         <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4818,19 +4821,19 @@
         <v>88</v>
       </c>
       <c r="C176" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D176" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E176" t="s">
         <v>7</v>
       </c>
       <c r="F176" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G176" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4841,19 +4844,19 @@
         <v>88</v>
       </c>
       <c r="C177" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D177" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E177" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F177" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G177" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4864,19 +4867,19 @@
         <v>88</v>
       </c>
       <c r="C178" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D178" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E178" t="s">
         <v>9</v>
       </c>
       <c r="F178" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G178" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4887,19 +4890,19 @@
         <v>88</v>
       </c>
       <c r="C179" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D179" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E179" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F179" t="s">
         <v>7</v>
       </c>
       <c r="G179" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4910,19 +4913,19 @@
         <v>88</v>
       </c>
       <c r="C180" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D180" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E180" t="s">
         <v>7</v>
       </c>
       <c r="F180" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G180" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4933,19 +4936,19 @@
         <v>88</v>
       </c>
       <c r="C181" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D181" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E181" t="s">
         <v>7</v>
       </c>
       <c r="F181" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G181" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4956,10 +4959,10 @@
         <v>89</v>
       </c>
       <c r="C182" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D182" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E182" t="s">
         <v>7</v>
@@ -4968,7 +4971,7 @@
         <v>7</v>
       </c>
       <c r="G182" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4979,10 +4982,10 @@
         <v>90</v>
       </c>
       <c r="C183" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D183" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E183" t="s">
         <v>8</v>
@@ -4991,7 +4994,7 @@
         <v>7</v>
       </c>
       <c r="G183" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5002,10 +5005,10 @@
         <v>90</v>
       </c>
       <c r="C184" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D184" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E184" t="s">
         <v>8</v>
@@ -5014,7 +5017,7 @@
         <v>9</v>
       </c>
       <c r="G184" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5025,10 +5028,10 @@
         <v>90</v>
       </c>
       <c r="C185" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D185" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E185" t="s">
         <v>7</v>
@@ -5037,7 +5040,7 @@
         <v>7</v>
       </c>
       <c r="G185" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5048,19 +5051,19 @@
         <v>90</v>
       </c>
       <c r="C186" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D186" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E186" t="s">
         <v>7</v>
       </c>
       <c r="F186" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G186" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5071,19 +5074,19 @@
         <v>91</v>
       </c>
       <c r="C187" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D187" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E187" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F187" t="s">
         <v>9</v>
       </c>
       <c r="G187" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5094,19 +5097,19 @@
         <v>91</v>
       </c>
       <c r="C188" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D188" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E188" t="s">
         <v>9</v>
       </c>
       <c r="F188" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G188" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5117,10 +5120,10 @@
         <v>91</v>
       </c>
       <c r="C189" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D189" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E189" t="s">
         <v>7</v>
@@ -5129,7 +5132,7 @@
         <v>8</v>
       </c>
       <c r="G189" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5140,10 +5143,10 @@
         <v>91</v>
       </c>
       <c r="C190" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D190" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E190" t="s">
         <v>7</v>
@@ -5152,7 +5155,7 @@
         <v>8</v>
       </c>
       <c r="G190" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5163,10 +5166,10 @@
         <v>91</v>
       </c>
       <c r="C191" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D191" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E191" t="s">
         <v>7</v>
@@ -5175,7 +5178,7 @@
         <v>7</v>
       </c>
       <c r="G191" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5186,19 +5189,19 @@
         <v>92</v>
       </c>
       <c r="C192" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D192" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E192" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F192" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G192" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5209,10 +5212,10 @@
         <v>92</v>
       </c>
       <c r="C193" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D193" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E193" t="s">
         <v>8</v>
@@ -5221,7 +5224,7 @@
         <v>7</v>
       </c>
       <c r="G193" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5232,10 +5235,10 @@
         <v>92</v>
       </c>
       <c r="C194" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D194" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E194" t="s">
         <v>8</v>
@@ -5244,7 +5247,7 @@
         <v>7</v>
       </c>
       <c r="G194" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5255,10 +5258,10 @@
         <v>92</v>
       </c>
       <c r="C195" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D195" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E195" t="s">
         <v>7</v>
@@ -5267,7 +5270,7 @@
         <v>11</v>
       </c>
       <c r="G195" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5278,19 +5281,19 @@
         <v>93</v>
       </c>
       <c r="C196" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D196" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E196" t="s">
         <v>7</v>
       </c>
       <c r="F196" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G196" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5301,10 +5304,10 @@
         <v>93</v>
       </c>
       <c r="C197" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D197" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E197" t="s">
         <v>8</v>
@@ -5313,7 +5316,7 @@
         <v>7</v>
       </c>
       <c r="G197" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5324,10 +5327,10 @@
         <v>93</v>
       </c>
       <c r="C198" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D198" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E198" t="s">
         <v>8</v>
@@ -5336,7 +5339,7 @@
         <v>8</v>
       </c>
       <c r="G198" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5347,10 +5350,10 @@
         <v>93</v>
       </c>
       <c r="C199" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D199" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E199" t="s">
         <v>9</v>
@@ -5359,7 +5362,7 @@
         <v>7</v>
       </c>
       <c r="G199" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5370,19 +5373,19 @@
         <v>94</v>
       </c>
       <c r="C200" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D200" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E200" t="s">
         <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G200" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5393,19 +5396,19 @@
         <v>95</v>
       </c>
       <c r="C201" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D201" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E201" t="s">
         <v>9</v>
       </c>
       <c r="F201" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G201" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5416,10 +5419,10 @@
         <v>96</v>
       </c>
       <c r="C202" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D202" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E202" t="s">
         <v>8</v>
@@ -5428,7 +5431,7 @@
         <v>7</v>
       </c>
       <c r="G202" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5439,10 +5442,10 @@
         <v>96</v>
       </c>
       <c r="C203" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D203" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E203" t="s">
         <v>8</v>
@@ -5451,7 +5454,7 @@
         <v>9</v>
       </c>
       <c r="G203" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5462,10 +5465,10 @@
         <v>97</v>
       </c>
       <c r="C204" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D204" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E204" t="s">
         <v>9</v>
@@ -5474,7 +5477,7 @@
         <v>7</v>
       </c>
       <c r="G204" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5485,19 +5488,19 @@
         <v>97</v>
       </c>
       <c r="C205" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D205" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E205" t="s">
         <v>9</v>
       </c>
       <c r="F205" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G205" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5508,10 +5511,10 @@
         <v>97</v>
       </c>
       <c r="C206" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D206" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E206" t="s">
         <v>7</v>
@@ -5520,7 +5523,7 @@
         <v>8</v>
       </c>
       <c r="G206" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5531,19 +5534,19 @@
         <v>97</v>
       </c>
       <c r="C207" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D207" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E207" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F207" t="s">
         <v>9</v>
       </c>
       <c r="G207" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5554,42 +5557,42 @@
         <v>98</v>
       </c>
       <c r="C208" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D208" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E208" t="s">
         <v>8</v>
       </c>
       <c r="F208" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G208" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B209" t="s">
         <v>99</v>
       </c>
       <c r="C209" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D209" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E209" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="F209" t="s">
         <v>8</v>
       </c>
       <c r="G209" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5603,16 +5606,16 @@
         <v>133</v>
       </c>
       <c r="D210" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F210" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="G210" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5620,22 +5623,22 @@
         <v>28</v>
       </c>
       <c r="B211" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C211" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D211" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F211" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="G211" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5643,22 +5646,22 @@
         <v>28</v>
       </c>
       <c r="B212" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C212" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D212" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G212" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5669,19 +5672,19 @@
         <v>101</v>
       </c>
       <c r="C213" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D213" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E213" t="s">
         <v>8</v>
       </c>
       <c r="F213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G213" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5689,22 +5692,22 @@
         <v>28</v>
       </c>
       <c r="B214" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C214" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D214" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F214" t="s">
         <v>7</v>
       </c>
       <c r="G214" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5712,22 +5715,22 @@
         <v>28</v>
       </c>
       <c r="B215" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C215" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D215" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E215" t="s">
         <v>7</v>
       </c>
       <c r="F215" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="G215" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5735,22 +5738,22 @@
         <v>28</v>
       </c>
       <c r="B216" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C216" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D216" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E216" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="F216" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G216" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5758,22 +5761,22 @@
         <v>28</v>
       </c>
       <c r="B217" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C217" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D217" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E217" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F217" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="G217" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5784,42 +5787,42 @@
         <v>102</v>
       </c>
       <c r="C218" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D218" t="s">
         <v>118</v>
       </c>
       <c r="E218" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="F218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G218" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B219" t="s">
         <v>103</v>
       </c>
       <c r="C219" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D219" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E219" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F219" t="s">
         <v>8</v>
       </c>
       <c r="G219" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5830,19 +5833,19 @@
         <v>104</v>
       </c>
       <c r="C220" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D220" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E220" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="F220" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="G220" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5850,22 +5853,22 @@
         <v>29</v>
       </c>
       <c r="B221" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C221" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D221" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E221" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F221" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G221" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5873,22 +5876,22 @@
         <v>29</v>
       </c>
       <c r="B222" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C222" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D222" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E222" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="F222" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="G222" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5896,22 +5899,22 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C223" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D223" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G223" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5922,19 +5925,19 @@
         <v>105</v>
       </c>
       <c r="C224" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D224" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E224" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="G224" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5942,22 +5945,22 @@
         <v>29</v>
       </c>
       <c r="B225" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C225" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D225" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E225" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="F225" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="G225" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5965,22 +5968,22 @@
         <v>29</v>
       </c>
       <c r="B226" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C226" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D226" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E226" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F226" t="s">
         <v>7</v>
       </c>
       <c r="G226" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5988,22 +5991,22 @@
         <v>29</v>
       </c>
       <c r="B227" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C227" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D227" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E227" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F227" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="G227" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6017,39 +6020,39 @@
         <v>118</v>
       </c>
       <c r="D228" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F228" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G228" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B229" t="s">
         <v>107</v>
       </c>
       <c r="C229" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D229" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E229" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="G229" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6063,7 +6066,7 @@
         <v>132</v>
       </c>
       <c r="D230" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E230" t="s">
         <v>7</v>
@@ -6072,7 +6075,7 @@
         <v>9</v>
       </c>
       <c r="G230" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6080,22 +6083,22 @@
         <v>30</v>
       </c>
       <c r="B231" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C231" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D231" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F231" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G231" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6103,22 +6106,22 @@
         <v>30</v>
       </c>
       <c r="B232" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C232" t="s">
         <v>119</v>
       </c>
       <c r="D232" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F232" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G232" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6129,19 +6132,19 @@
         <v>109</v>
       </c>
       <c r="C233" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D233" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E233" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F233" t="s">
         <v>7</v>
       </c>
       <c r="G233" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6149,22 +6152,22 @@
         <v>30</v>
       </c>
       <c r="B234" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C234" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D234" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E234" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F234" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="G234" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6172,22 +6175,22 @@
         <v>30</v>
       </c>
       <c r="B235" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C235" t="s">
         <v>124</v>
       </c>
       <c r="D235" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E235" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G235" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6195,22 +6198,22 @@
         <v>30</v>
       </c>
       <c r="B236" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C236" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D236" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E236" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="F236" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G236" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6218,22 +6221,22 @@
         <v>30</v>
       </c>
       <c r="B237" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C237" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D237" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E237" t="s">
         <v>7</v>
       </c>
       <c r="F237" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G237" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6244,42 +6247,42 @@
         <v>110</v>
       </c>
       <c r="C238" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D238" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E238" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="F238" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="G238" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B239" t="s">
         <v>111</v>
       </c>
       <c r="C239" t="s">
+        <v>129</v>
+      </c>
+      <c r="D239" t="s">
         <v>122</v>
       </c>
-      <c r="D239" t="s">
-        <v>120</v>
-      </c>
       <c r="E239" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="F239" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="G239" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -6287,22 +6290,22 @@
         <v>31</v>
       </c>
       <c r="B240" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C240" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D240" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E240" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F240" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G240" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -6313,19 +6316,19 @@
         <v>112</v>
       </c>
       <c r="C241" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D241" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E241" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="G241" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6333,22 +6336,22 @@
         <v>31</v>
       </c>
       <c r="B242" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C242" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D242" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G242" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6356,22 +6359,22 @@
         <v>31</v>
       </c>
       <c r="B243" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C243" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D243" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E243" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F243" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="G243" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6382,19 +6385,19 @@
         <v>113</v>
       </c>
       <c r="C244" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D244" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E244" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F244" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="G244" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6402,22 +6405,22 @@
         <v>31</v>
       </c>
       <c r="B245" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C245" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D245" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E245" t="s">
         <v>7</v>
       </c>
       <c r="F245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G245" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6425,13 +6428,13 @@
         <v>31</v>
       </c>
       <c r="B246" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C246" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D246" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E246" t="s">
         <v>7</v>
@@ -6440,7 +6443,7 @@
         <v>7</v>
       </c>
       <c r="G246" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6448,22 +6451,22 @@
         <v>31</v>
       </c>
       <c r="B247" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C247" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D247" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E247" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="F247" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G247" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6471,22 +6474,45 @@
         <v>31</v>
       </c>
       <c r="B248" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C248" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D248" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E248" t="s">
+        <v>135</v>
+      </c>
+      <c r="F248" t="s">
+        <v>9</v>
+      </c>
+      <c r="G248" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" t="s">
+        <v>31</v>
+      </c>
+      <c r="B249" t="s">
+        <v>114</v>
+      </c>
+      <c r="C249" t="s">
+        <v>125</v>
+      </c>
+      <c r="D249" t="s">
+        <v>127</v>
+      </c>
+      <c r="E249" t="s">
         <v>10</v>
       </c>
-      <c r="F248" t="s">
-        <v>8</v>
-      </c>
-      <c r="G248" t="s">
-        <v>135</v>
+      <c r="F249" t="s">
+        <v>8</v>
+      </c>
+      <c r="G249" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/season/season-2324_csv.xlsx
+++ b/season/season-2324_csv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="142">
   <si>
     <t>Giornata</t>
   </si>
@@ -112,6 +112,9 @@
     <t>25</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>2023-08-19</t>
   </si>
   <si>
@@ -359,6 +362,18 @@
   </si>
   <si>
     <t>2024-02-18</t>
+  </si>
+  <si>
+    <t>2024-02-23</t>
+  </si>
+  <si>
+    <t>2024-02-24</t>
+  </si>
+  <si>
+    <t>2024-02-25</t>
+  </si>
+  <si>
+    <t>2024-02-26</t>
   </si>
   <si>
     <t>Empoli</t>
@@ -782,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G249"/>
+  <dimension ref="A1:G259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -816,22 +831,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -839,13 +854,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -854,7 +869,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -862,13 +877,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -877,7 +892,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -885,22 +900,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -908,13 +923,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -923,7 +938,7 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -931,22 +946,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -954,13 +969,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -969,7 +984,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -977,22 +992,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1000,22 +1015,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1023,22 +1038,22 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1046,13 +1061,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1061,7 +1076,7 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1069,22 +1084,22 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1092,13 +1107,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1107,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1115,13 +1130,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1130,7 +1145,7 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1138,13 +1153,13 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1153,7 +1168,7 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1161,14 +1176,14 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" t="s">
         <v>129</v>
       </c>
-      <c r="D17" t="s">
-        <v>124</v>
-      </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
@@ -1176,7 +1191,7 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1184,22 +1199,22 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1207,22 +1222,22 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1230,13 +1245,13 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -1245,7 +1260,7 @@
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1253,22 +1268,22 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1276,13 +1291,13 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -1291,7 +1306,7 @@
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1299,13 +1314,13 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -1314,7 +1329,7 @@
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1322,13 +1337,13 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -1337,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1345,22 +1360,22 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G25" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1368,22 +1383,22 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1391,13 +1406,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -1406,7 +1421,7 @@
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1414,22 +1429,22 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G28" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1437,22 +1452,22 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G29" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1460,22 +1475,22 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1483,22 +1498,22 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1506,13 +1521,13 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1521,7 +1536,7 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1529,13 +1544,13 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -1544,7 +1559,7 @@
         <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1552,13 +1567,13 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -1567,7 +1582,7 @@
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1575,22 +1590,22 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F35" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G35" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1598,13 +1613,13 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -1613,7 +1628,7 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1621,13 +1636,13 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -1636,7 +1651,7 @@
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1644,13 +1659,13 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1659,7 +1674,7 @@
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1667,22 +1682,22 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G39" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1690,22 +1705,22 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1713,22 +1728,22 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E41" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F41" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G41" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1736,13 +1751,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
@@ -1751,7 +1766,7 @@
         <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1759,22 +1774,22 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G43" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1782,22 +1797,22 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G44" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1805,13 +1820,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -1820,7 +1835,7 @@
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1828,14 +1843,14 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" t="s">
         <v>130</v>
       </c>
-      <c r="D46" t="s">
-        <v>125</v>
-      </c>
       <c r="E46" t="s">
         <v>7</v>
       </c>
@@ -1843,7 +1858,7 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1851,22 +1866,22 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E47" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1874,22 +1889,22 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G48" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1897,22 +1912,22 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F49" t="s">
         <v>8</v>
       </c>
       <c r="G49" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1920,22 +1935,22 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F50" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G50" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1943,13 +1958,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -1958,7 +1973,7 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1966,22 +1981,22 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G52" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1989,13 +2004,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
@@ -2004,7 +2019,7 @@
         <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2012,22 +2027,22 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D54" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G54" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2035,22 +2050,22 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2058,13 +2073,13 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D56" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
@@ -2073,7 +2088,7 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2081,22 +2096,22 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D57" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G57" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2104,13 +2119,13 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
@@ -2119,7 +2134,7 @@
         <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2127,13 +2142,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D59" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
@@ -2142,7 +2157,7 @@
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2150,22 +2165,22 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D60" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E60" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F60" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G60" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2173,13 +2188,13 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
@@ -2188,7 +2203,7 @@
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2196,22 +2211,22 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E62" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2219,22 +2234,22 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D63" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G63" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2242,22 +2257,22 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D64" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E64" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2265,22 +2280,22 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G65" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2288,14 +2303,14 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C66" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" t="s">
         <v>122</v>
       </c>
-      <c r="D66" t="s">
-        <v>117</v>
-      </c>
       <c r="E66" t="s">
         <v>8</v>
       </c>
@@ -2303,7 +2318,7 @@
         <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2311,22 +2326,22 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C67" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67" t="s">
         <v>134</v>
       </c>
-      <c r="D67" t="s">
-        <v>129</v>
-      </c>
       <c r="E67" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F67" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G67" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2334,22 +2349,22 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D68" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G68" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2357,22 +2372,22 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C69" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D69" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F69" t="s">
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2380,22 +2395,22 @@
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C70" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D70" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F70" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G70" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2403,22 +2418,22 @@
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C71" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D71" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G71" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2426,22 +2441,22 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D72" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G72" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2449,13 +2464,13 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D73" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
@@ -2464,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2472,13 +2487,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D74" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -2487,7 +2502,7 @@
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2495,22 +2510,22 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D75" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G75" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2518,22 +2533,22 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D76" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E76" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F76" t="s">
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2541,22 +2556,22 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D77" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G77" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2564,13 +2579,13 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D78" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
@@ -2579,7 +2594,7 @@
         <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2587,13 +2602,13 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C79" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D79" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
@@ -2602,7 +2617,7 @@
         <v>8</v>
       </c>
       <c r="G79" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2610,13 +2625,13 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C80" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D80" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E80" t="s">
         <v>7</v>
@@ -2625,7 +2640,7 @@
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2633,13 +2648,13 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C81" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D81" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
@@ -2648,7 +2663,7 @@
         <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2656,13 +2671,13 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C82" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D82" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
@@ -2671,7 +2686,7 @@
         <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2679,22 +2694,22 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C83" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" t="s">
         <v>123</v>
       </c>
-      <c r="D83" t="s">
-        <v>118</v>
-      </c>
       <c r="E83" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2702,22 +2717,22 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D84" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E84" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F84" t="s">
         <v>8</v>
       </c>
       <c r="G84" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2725,22 +2740,22 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D85" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G85" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2748,13 +2763,13 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C86" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D86" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
@@ -2763,7 +2778,7 @@
         <v>7</v>
       </c>
       <c r="G86" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2771,13 +2786,13 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C87" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D87" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
@@ -2786,7 +2801,7 @@
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2794,22 +2809,22 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C88" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D88" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G88" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2817,22 +2832,22 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C89" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D89" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E89" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F89" t="s">
         <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2840,13 +2855,13 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D90" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E90" t="s">
         <v>7</v>
@@ -2855,7 +2870,7 @@
         <v>7</v>
       </c>
       <c r="G90" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2863,22 +2878,22 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C91" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D91" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E91" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F91" t="s">
         <v>8</v>
       </c>
       <c r="G91" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2886,22 +2901,22 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C92" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D92" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E92" t="s">
         <v>7</v>
       </c>
       <c r="F92" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G92" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2909,13 +2924,13 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C93" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D93" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E93" t="s">
         <v>7</v>
@@ -2924,7 +2939,7 @@
         <v>7</v>
       </c>
       <c r="G93" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2932,22 +2947,22 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C94" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D94" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E94" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F94" t="s">
         <v>7</v>
       </c>
       <c r="G94" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2955,22 +2970,22 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C95" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D95" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E95" t="s">
         <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G95" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2978,13 +2993,13 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C96" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D96" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
@@ -2993,7 +3008,7 @@
         <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3001,13 +3016,13 @@
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C97" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D97" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E97" t="s">
         <v>7</v>
@@ -3016,7 +3031,7 @@
         <v>7</v>
       </c>
       <c r="G97" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3024,22 +3039,22 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C98" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D98" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E98" t="s">
         <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G98" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3047,13 +3062,13 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C99" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D99" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -3062,7 +3077,7 @@
         <v>8</v>
       </c>
       <c r="G99" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3070,22 +3085,22 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C100" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D100" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E100" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F100" t="s">
         <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3093,22 +3108,22 @@
         <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C101" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D101" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E101" t="s">
         <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G101" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3116,22 +3131,22 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C102" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D102" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E102" t="s">
         <v>7</v>
       </c>
       <c r="F102" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G102" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3139,22 +3154,22 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C103" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D103" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E103" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F103" t="s">
         <v>8</v>
       </c>
       <c r="G103" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3162,13 +3177,13 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C104" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D104" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E104" t="s">
         <v>7</v>
@@ -3177,7 +3192,7 @@
         <v>8</v>
       </c>
       <c r="G104" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3185,22 +3200,22 @@
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C105" t="s">
+        <v>132</v>
+      </c>
+      <c r="D105" t="s">
         <v>127</v>
       </c>
-      <c r="D105" t="s">
-        <v>122</v>
-      </c>
       <c r="E105" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F105" t="s">
         <v>7</v>
       </c>
       <c r="G105" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3208,13 +3223,13 @@
         <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C106" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D106" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E106" t="s">
         <v>7</v>
@@ -3223,7 +3238,7 @@
         <v>9</v>
       </c>
       <c r="G106" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3231,13 +3246,13 @@
         <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C107" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D107" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
@@ -3246,7 +3261,7 @@
         <v>7</v>
       </c>
       <c r="G107" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3254,13 +3269,13 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C108" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D108" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E108" t="s">
         <v>8</v>
@@ -3269,7 +3284,7 @@
         <v>7</v>
       </c>
       <c r="G108" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3277,22 +3292,22 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C109" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D109" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E109" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F109" t="s">
         <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3300,13 +3315,13 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C110" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D110" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
@@ -3315,7 +3330,7 @@
         <v>7</v>
       </c>
       <c r="G110" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3323,13 +3338,13 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C111" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D111" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
@@ -3338,7 +3353,7 @@
         <v>7</v>
       </c>
       <c r="G111" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3346,13 +3361,13 @@
         <v>18</v>
       </c>
       <c r="B112" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C112" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D112" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E112" t="s">
         <v>8</v>
@@ -3361,7 +3376,7 @@
         <v>8</v>
       </c>
       <c r="G112" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3369,22 +3384,22 @@
         <v>18</v>
       </c>
       <c r="B113" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C113" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D113" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E113" t="s">
         <v>7</v>
       </c>
       <c r="F113" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G113" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3392,13 +3407,13 @@
         <v>18</v>
       </c>
       <c r="B114" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C114" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D114" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E114" t="s">
         <v>8</v>
@@ -3407,7 +3422,7 @@
         <v>8</v>
       </c>
       <c r="G114" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3415,13 +3430,13 @@
         <v>18</v>
       </c>
       <c r="B115" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C115" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D115" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E115" t="s">
         <v>8</v>
@@ -3430,7 +3445,7 @@
         <v>7</v>
       </c>
       <c r="G115" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3438,13 +3453,13 @@
         <v>18</v>
       </c>
       <c r="B116" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C116" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D116" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E116" t="s">
         <v>7</v>
@@ -3453,7 +3468,7 @@
         <v>7</v>
       </c>
       <c r="G116" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3461,22 +3476,22 @@
         <v>18</v>
       </c>
       <c r="B117" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C117" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D117" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E117" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F117" t="s">
         <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3484,13 +3499,13 @@
         <v>18</v>
       </c>
       <c r="B118" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C118" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D118" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
@@ -3499,7 +3514,7 @@
         <v>7</v>
       </c>
       <c r="G118" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3507,13 +3522,13 @@
         <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C119" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D119" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E119" t="s">
         <v>7</v>
@@ -3522,7 +3537,7 @@
         <v>7</v>
       </c>
       <c r="G119" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3530,22 +3545,22 @@
         <v>18</v>
       </c>
       <c r="B120" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C120" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D120" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E120" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F120" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G120" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3553,22 +3568,22 @@
         <v>18</v>
       </c>
       <c r="B121" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C121" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D121" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E121" t="s">
         <v>8</v>
       </c>
       <c r="F121" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G121" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3576,13 +3591,13 @@
         <v>19</v>
       </c>
       <c r="B122" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C122" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D122" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E122" t="s">
         <v>8</v>
@@ -3591,7 +3606,7 @@
         <v>7</v>
       </c>
       <c r="G122" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3599,13 +3614,13 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C123" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D123" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E123" t="s">
         <v>7</v>
@@ -3614,7 +3629,7 @@
         <v>8</v>
       </c>
       <c r="G123" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3622,22 +3637,22 @@
         <v>19</v>
       </c>
       <c r="B124" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C124" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D124" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E124" t="s">
         <v>7</v>
       </c>
       <c r="F124" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G124" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3645,13 +3660,13 @@
         <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C125" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D125" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E125" t="s">
         <v>7</v>
@@ -3660,7 +3675,7 @@
         <v>7</v>
       </c>
       <c r="G125" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3668,13 +3683,13 @@
         <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C126" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D126" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E126" t="s">
         <v>9</v>
@@ -3683,7 +3698,7 @@
         <v>10</v>
       </c>
       <c r="G126" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3691,13 +3706,13 @@
         <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C127" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D127" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
@@ -3706,7 +3721,7 @@
         <v>7</v>
       </c>
       <c r="G127" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3714,13 +3729,13 @@
         <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C128" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D128" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
@@ -3729,7 +3744,7 @@
         <v>7</v>
       </c>
       <c r="G128" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3737,13 +3752,13 @@
         <v>19</v>
       </c>
       <c r="B129" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C129" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D129" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E129" t="s">
         <v>7</v>
@@ -3752,7 +3767,7 @@
         <v>7</v>
       </c>
       <c r="G129" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3760,14 +3775,14 @@
         <v>19</v>
       </c>
       <c r="B130" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C130" t="s">
+        <v>131</v>
+      </c>
+      <c r="D130" t="s">
         <v>126</v>
       </c>
-      <c r="D130" t="s">
-        <v>121</v>
-      </c>
       <c r="E130" t="s">
         <v>8</v>
       </c>
@@ -3775,7 +3790,7 @@
         <v>8</v>
       </c>
       <c r="G130" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3783,22 +3798,22 @@
         <v>19</v>
       </c>
       <c r="B131" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C131" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D131" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E131" t="s">
         <v>8</v>
       </c>
       <c r="F131" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G131" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3806,13 +3821,13 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C132" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D132" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E132" t="s">
         <v>7</v>
@@ -3821,7 +3836,7 @@
         <v>8</v>
       </c>
       <c r="G132" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3829,13 +3844,13 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C133" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D133" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E133" t="s">
         <v>7</v>
@@ -3844,7 +3859,7 @@
         <v>7</v>
       </c>
       <c r="G133" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3852,22 +3867,22 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C134" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D134" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E134" t="s">
         <v>7</v>
       </c>
       <c r="F134" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G134" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3875,13 +3890,13 @@
         <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C135" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D135" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E135" t="s">
         <v>9</v>
@@ -3890,7 +3905,7 @@
         <v>7</v>
       </c>
       <c r="G135" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3898,13 +3913,13 @@
         <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C136" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D136" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E136" t="s">
         <v>7</v>
@@ -3913,7 +3928,7 @@
         <v>7</v>
       </c>
       <c r="G136" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3921,22 +3936,22 @@
         <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C137" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D137" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E137" t="s">
         <v>9</v>
       </c>
       <c r="F137" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G137" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3944,13 +3959,13 @@
         <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C138" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D138" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E138" t="s">
         <v>9</v>
@@ -3959,7 +3974,7 @@
         <v>9</v>
       </c>
       <c r="G138" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3967,13 +3982,13 @@
         <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C139" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D139" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E139" t="s">
         <v>7</v>
@@ -3982,7 +3997,7 @@
         <v>8</v>
       </c>
       <c r="G139" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3990,22 +4005,22 @@
         <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C140" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D140" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E140" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F140" t="s">
         <v>9</v>
       </c>
       <c r="G140" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4013,22 +4028,22 @@
         <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C141" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D141" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E141" t="s">
         <v>9</v>
       </c>
       <c r="F141" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G141" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4036,22 +4051,22 @@
         <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C142" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D142" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E142" t="s">
         <v>7</v>
       </c>
       <c r="F142" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G142" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4059,13 +4074,13 @@
         <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C143" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D143" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E143" t="s">
         <v>7</v>
@@ -4074,7 +4089,7 @@
         <v>7</v>
       </c>
       <c r="G143" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4082,13 +4097,13 @@
         <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C144" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D144" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E144" t="s">
         <v>9</v>
@@ -4097,7 +4112,7 @@
         <v>8</v>
       </c>
       <c r="G144" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4105,22 +4120,22 @@
         <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C145" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D145" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E145" t="s">
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G145" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4128,22 +4143,22 @@
         <v>21</v>
       </c>
       <c r="B146" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C146" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D146" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E146" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F146" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G146" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4151,22 +4166,22 @@
         <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C147" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D147" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E147" t="s">
         <v>7</v>
       </c>
       <c r="F147" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G147" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4174,13 +4189,13 @@
         <v>21</v>
       </c>
       <c r="B148" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D148" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E148" t="s">
         <v>7</v>
@@ -4189,7 +4204,7 @@
         <v>8</v>
       </c>
       <c r="G148" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4197,13 +4212,13 @@
         <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D149" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E149" t="s">
         <v>7</v>
@@ -4212,7 +4227,7 @@
         <v>7</v>
       </c>
       <c r="G149" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4220,13 +4235,13 @@
         <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C150" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D150" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E150" t="s">
         <v>7</v>
@@ -4235,7 +4250,7 @@
         <v>7</v>
       </c>
       <c r="G150" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4243,13 +4258,13 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C151" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D151" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E151" t="s">
         <v>8</v>
@@ -4258,7 +4273,7 @@
         <v>7</v>
       </c>
       <c r="G151" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4266,13 +4281,13 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C152" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D152" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E152" t="s">
         <v>7</v>
@@ -4281,7 +4296,7 @@
         <v>7</v>
       </c>
       <c r="G152" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4289,14 +4304,14 @@
         <v>22</v>
       </c>
       <c r="B153" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C153" t="s">
+        <v>126</v>
+      </c>
+      <c r="D153" t="s">
         <v>121</v>
       </c>
-      <c r="D153" t="s">
-        <v>116</v>
-      </c>
       <c r="E153" t="s">
         <v>8</v>
       </c>
@@ -4304,7 +4319,7 @@
         <v>7</v>
       </c>
       <c r="G153" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4312,13 +4327,13 @@
         <v>22</v>
       </c>
       <c r="B154" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C154" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D154" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E154" t="s">
         <v>8</v>
@@ -4327,7 +4342,7 @@
         <v>7</v>
       </c>
       <c r="G154" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4335,22 +4350,22 @@
         <v>22</v>
       </c>
       <c r="B155" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C155" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D155" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E155" t="s">
         <v>7</v>
       </c>
       <c r="F155" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G155" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4358,22 +4373,22 @@
         <v>22</v>
       </c>
       <c r="B156" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C156" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D156" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E156" t="s">
         <v>9</v>
       </c>
       <c r="F156" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G156" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4381,22 +4396,22 @@
         <v>22</v>
       </c>
       <c r="B157" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C157" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D157" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E157" t="s">
         <v>7</v>
       </c>
       <c r="F157" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G157" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4404,13 +4419,13 @@
         <v>22</v>
       </c>
       <c r="B158" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C158" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D158" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E158" t="s">
         <v>8</v>
@@ -4419,7 +4434,7 @@
         <v>8</v>
       </c>
       <c r="G158" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4427,22 +4442,22 @@
         <v>22</v>
       </c>
       <c r="B159" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C159" t="s">
+        <v>129</v>
+      </c>
+      <c r="D159" t="s">
         <v>124</v>
       </c>
-      <c r="D159" t="s">
-        <v>119</v>
-      </c>
       <c r="E159" t="s">
         <v>8</v>
       </c>
       <c r="F159" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G159" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4450,22 +4465,22 @@
         <v>22</v>
       </c>
       <c r="B160" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C160" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D160" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E160" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F160" t="s">
         <v>8</v>
       </c>
       <c r="G160" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4473,13 +4488,13 @@
         <v>22</v>
       </c>
       <c r="B161" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C161" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D161" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E161" t="s">
         <v>10</v>
@@ -4488,7 +4503,7 @@
         <v>7</v>
       </c>
       <c r="G161" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4496,22 +4511,22 @@
         <v>23</v>
       </c>
       <c r="B162" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C162" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D162" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E162" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F162" t="s">
         <v>8</v>
       </c>
       <c r="G162" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4519,13 +4534,13 @@
         <v>23</v>
       </c>
       <c r="B163" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C163" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D163" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E163" t="s">
         <v>7</v>
@@ -4534,7 +4549,7 @@
         <v>8</v>
       </c>
       <c r="G163" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4542,22 +4557,22 @@
         <v>23</v>
       </c>
       <c r="B164" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C164" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D164" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E164" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F164" t="s">
         <v>7</v>
       </c>
       <c r="G164" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4565,14 +4580,14 @@
         <v>23</v>
       </c>
       <c r="B165" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C165" t="s">
+        <v>137</v>
+      </c>
+      <c r="D165" t="s">
         <v>132</v>
       </c>
-      <c r="D165" t="s">
-        <v>127</v>
-      </c>
       <c r="E165" t="s">
         <v>8</v>
       </c>
@@ -4580,7 +4595,7 @@
         <v>8</v>
       </c>
       <c r="G165" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4588,13 +4603,13 @@
         <v>23</v>
       </c>
       <c r="B166" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C166" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D166" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E166" t="s">
         <v>7</v>
@@ -4603,7 +4618,7 @@
         <v>8</v>
       </c>
       <c r="G166" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4611,22 +4626,22 @@
         <v>23</v>
       </c>
       <c r="B167" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C167" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D167" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E167" t="s">
         <v>7</v>
       </c>
       <c r="F167" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G167" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4634,13 +4649,13 @@
         <v>23</v>
       </c>
       <c r="B168" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C168" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D168" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E168" t="s">
         <v>7</v>
@@ -4649,7 +4664,7 @@
         <v>7</v>
       </c>
       <c r="G168" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4657,22 +4672,22 @@
         <v>23</v>
       </c>
       <c r="B169" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C169" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D169" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E169" t="s">
         <v>8</v>
       </c>
       <c r="F169" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G169" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4680,22 +4695,22 @@
         <v>23</v>
       </c>
       <c r="B170" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C170" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D170" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E170" t="s">
         <v>8</v>
       </c>
       <c r="F170" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G170" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4703,22 +4718,22 @@
         <v>23</v>
       </c>
       <c r="B171" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C171" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D171" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E171" t="s">
         <v>8</v>
       </c>
       <c r="F171" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G171" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4726,22 +4741,22 @@
         <v>24</v>
       </c>
       <c r="B172" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C172" t="s">
+        <v>133</v>
+      </c>
+      <c r="D172" t="s">
         <v>128</v>
       </c>
-      <c r="D172" t="s">
-        <v>123</v>
-      </c>
       <c r="E172" t="s">
         <v>7</v>
       </c>
       <c r="F172" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G172" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4749,22 +4764,22 @@
         <v>24</v>
       </c>
       <c r="B173" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C173" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D173" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E173" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F173" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G173" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4772,13 +4787,13 @@
         <v>24</v>
       </c>
       <c r="B174" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C174" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D174" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E174" t="s">
         <v>7</v>
@@ -4787,7 +4802,7 @@
         <v>7</v>
       </c>
       <c r="G174" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4795,13 +4810,13 @@
         <v>24</v>
       </c>
       <c r="B175" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C175" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D175" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E175" t="s">
         <v>9</v>
@@ -4810,7 +4825,7 @@
         <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4818,22 +4833,22 @@
         <v>24</v>
       </c>
       <c r="B176" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C176" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D176" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E176" t="s">
         <v>7</v>
       </c>
       <c r="F176" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G176" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4841,22 +4856,22 @@
         <v>24</v>
       </c>
       <c r="B177" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C177" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D177" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E177" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F177" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G177" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4864,22 +4879,22 @@
         <v>24</v>
       </c>
       <c r="B178" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C178" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D178" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E178" t="s">
         <v>9</v>
       </c>
       <c r="F178" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G178" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4887,22 +4902,22 @@
         <v>24</v>
       </c>
       <c r="B179" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C179" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D179" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E179" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F179" t="s">
         <v>7</v>
       </c>
       <c r="G179" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4910,22 +4925,22 @@
         <v>24</v>
       </c>
       <c r="B180" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C180" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D180" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E180" t="s">
         <v>7</v>
       </c>
       <c r="F180" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G180" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4933,22 +4948,22 @@
         <v>24</v>
       </c>
       <c r="B181" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C181" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D181" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E181" t="s">
         <v>7</v>
       </c>
       <c r="F181" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G181" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4956,13 +4971,13 @@
         <v>25</v>
       </c>
       <c r="B182" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C182" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D182" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E182" t="s">
         <v>7</v>
@@ -4971,7 +4986,7 @@
         <v>7</v>
       </c>
       <c r="G182" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4979,13 +4994,13 @@
         <v>25</v>
       </c>
       <c r="B183" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C183" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D183" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E183" t="s">
         <v>8</v>
@@ -4994,7 +5009,7 @@
         <v>7</v>
       </c>
       <c r="G183" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5002,13 +5017,13 @@
         <v>25</v>
       </c>
       <c r="B184" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C184" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D184" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E184" t="s">
         <v>8</v>
@@ -5017,7 +5032,7 @@
         <v>9</v>
       </c>
       <c r="G184" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5025,13 +5040,13 @@
         <v>25</v>
       </c>
       <c r="B185" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C185" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D185" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E185" t="s">
         <v>7</v>
@@ -5040,7 +5055,7 @@
         <v>7</v>
       </c>
       <c r="G185" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5048,22 +5063,22 @@
         <v>25</v>
       </c>
       <c r="B186" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C186" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D186" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E186" t="s">
         <v>7</v>
       </c>
       <c r="F186" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G186" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5071,22 +5086,22 @@
         <v>25</v>
       </c>
       <c r="B187" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C187" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D187" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E187" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F187" t="s">
         <v>9</v>
       </c>
       <c r="G187" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5094,22 +5109,22 @@
         <v>25</v>
       </c>
       <c r="B188" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C188" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D188" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E188" t="s">
         <v>9</v>
       </c>
       <c r="F188" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G188" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5117,13 +5132,13 @@
         <v>25</v>
       </c>
       <c r="B189" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C189" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D189" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E189" t="s">
         <v>7</v>
@@ -5132,7 +5147,7 @@
         <v>8</v>
       </c>
       <c r="G189" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5140,13 +5155,13 @@
         <v>25</v>
       </c>
       <c r="B190" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C190" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D190" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E190" t="s">
         <v>7</v>
@@ -5155,7 +5170,7 @@
         <v>8</v>
       </c>
       <c r="G190" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5163,13 +5178,13 @@
         <v>25</v>
       </c>
       <c r="B191" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C191" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D191" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E191" t="s">
         <v>7</v>
@@ -5178,7 +5193,7 @@
         <v>7</v>
       </c>
       <c r="G191" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5186,22 +5201,22 @@
         <v>26</v>
       </c>
       <c r="B192" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C192" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D192" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E192" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F192" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G192" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5209,13 +5224,13 @@
         <v>26</v>
       </c>
       <c r="B193" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C193" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D193" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E193" t="s">
         <v>8</v>
@@ -5224,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="G193" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5232,13 +5247,13 @@
         <v>26</v>
       </c>
       <c r="B194" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C194" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D194" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E194" t="s">
         <v>8</v>
@@ -5247,7 +5262,7 @@
         <v>7</v>
       </c>
       <c r="G194" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5255,13 +5270,13 @@
         <v>26</v>
       </c>
       <c r="B195" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C195" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D195" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E195" t="s">
         <v>7</v>
@@ -5270,7 +5285,7 @@
         <v>11</v>
       </c>
       <c r="G195" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5278,22 +5293,22 @@
         <v>26</v>
       </c>
       <c r="B196" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C196" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D196" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E196" t="s">
         <v>7</v>
       </c>
       <c r="F196" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G196" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5301,13 +5316,13 @@
         <v>26</v>
       </c>
       <c r="B197" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C197" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D197" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E197" t="s">
         <v>8</v>
@@ -5316,7 +5331,7 @@
         <v>7</v>
       </c>
       <c r="G197" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5324,13 +5339,13 @@
         <v>26</v>
       </c>
       <c r="B198" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C198" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D198" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E198" t="s">
         <v>8</v>
@@ -5339,7 +5354,7 @@
         <v>8</v>
       </c>
       <c r="G198" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5347,13 +5362,13 @@
         <v>26</v>
       </c>
       <c r="B199" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C199" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D199" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E199" t="s">
         <v>9</v>
@@ -5362,7 +5377,7 @@
         <v>7</v>
       </c>
       <c r="G199" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5370,22 +5385,22 @@
         <v>26</v>
       </c>
       <c r="B200" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C200" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D200" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E200" t="s">
         <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G200" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5393,22 +5408,22 @@
         <v>26</v>
       </c>
       <c r="B201" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C201" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D201" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E201" t="s">
         <v>9</v>
       </c>
       <c r="F201" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G201" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5416,13 +5431,13 @@
         <v>27</v>
       </c>
       <c r="B202" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C202" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D202" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E202" t="s">
         <v>8</v>
@@ -5431,7 +5446,7 @@
         <v>7</v>
       </c>
       <c r="G202" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5439,13 +5454,13 @@
         <v>27</v>
       </c>
       <c r="B203" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C203" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D203" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E203" t="s">
         <v>8</v>
@@ -5454,7 +5469,7 @@
         <v>9</v>
       </c>
       <c r="G203" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5462,13 +5477,13 @@
         <v>27</v>
       </c>
       <c r="B204" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C204" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D204" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E204" t="s">
         <v>9</v>
@@ -5477,7 +5492,7 @@
         <v>7</v>
       </c>
       <c r="G204" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5485,22 +5500,22 @@
         <v>27</v>
       </c>
       <c r="B205" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C205" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D205" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E205" t="s">
         <v>9</v>
       </c>
       <c r="F205" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G205" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5508,13 +5523,13 @@
         <v>27</v>
       </c>
       <c r="B206" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C206" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D206" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E206" t="s">
         <v>7</v>
@@ -5523,7 +5538,7 @@
         <v>8</v>
       </c>
       <c r="G206" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5531,22 +5546,22 @@
         <v>27</v>
       </c>
       <c r="B207" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C207" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D207" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E207" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F207" t="s">
         <v>9</v>
       </c>
       <c r="G207" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5554,22 +5569,22 @@
         <v>27</v>
       </c>
       <c r="B208" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C208" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D208" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E208" t="s">
         <v>8</v>
       </c>
       <c r="F208" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G208" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5577,22 +5592,22 @@
         <v>27</v>
       </c>
       <c r="B209" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C209" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D209" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E209" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F209" t="s">
         <v>8</v>
       </c>
       <c r="G209" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5600,13 +5615,13 @@
         <v>28</v>
       </c>
       <c r="B210" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C210" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D210" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E210" t="s">
         <v>7</v>
@@ -5615,7 +5630,7 @@
         <v>8</v>
       </c>
       <c r="G210" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5623,22 +5638,22 @@
         <v>28</v>
       </c>
       <c r="B211" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C211" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D211" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E211" t="s">
         <v>8</v>
       </c>
       <c r="F211" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G211" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5646,13 +5661,13 @@
         <v>28</v>
       </c>
       <c r="B212" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C212" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D212" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E212" t="s">
         <v>7</v>
@@ -5661,7 +5676,7 @@
         <v>7</v>
       </c>
       <c r="G212" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5669,13 +5684,13 @@
         <v>28</v>
       </c>
       <c r="B213" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C213" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D213" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E213" t="s">
         <v>8</v>
@@ -5684,7 +5699,7 @@
         <v>8</v>
       </c>
       <c r="G213" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5692,13 +5707,13 @@
         <v>28</v>
       </c>
       <c r="B214" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C214" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D214" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E214" t="s">
         <v>8</v>
@@ -5707,7 +5722,7 @@
         <v>7</v>
       </c>
       <c r="G214" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5715,13 +5730,13 @@
         <v>28</v>
       </c>
       <c r="B215" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C215" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D215" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E215" t="s">
         <v>7</v>
@@ -5730,7 +5745,7 @@
         <v>7</v>
       </c>
       <c r="G215" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5738,22 +5753,22 @@
         <v>28</v>
       </c>
       <c r="B216" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C216" t="s">
+        <v>130</v>
+      </c>
+      <c r="D216" t="s">
         <v>125</v>
       </c>
-      <c r="D216" t="s">
-        <v>120</v>
-      </c>
       <c r="E216" t="s">
         <v>7</v>
       </c>
       <c r="F216" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G216" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5761,22 +5776,22 @@
         <v>28</v>
       </c>
       <c r="B217" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C217" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D217" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E217" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F217" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G217" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5784,22 +5799,22 @@
         <v>28</v>
       </c>
       <c r="B218" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C218" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D218" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E218" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F218" t="s">
         <v>7</v>
       </c>
       <c r="G218" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5807,13 +5822,13 @@
         <v>28</v>
       </c>
       <c r="B219" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C219" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D219" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E219" t="s">
         <v>7</v>
@@ -5822,7 +5837,7 @@
         <v>8</v>
       </c>
       <c r="G219" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5830,13 +5845,13 @@
         <v>29</v>
       </c>
       <c r="B220" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C220" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D220" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E220" t="s">
         <v>9</v>
@@ -5845,7 +5860,7 @@
         <v>8</v>
       </c>
       <c r="G220" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5853,22 +5868,22 @@
         <v>29</v>
       </c>
       <c r="B221" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C221" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D221" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E221" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F221" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G221" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5876,22 +5891,22 @@
         <v>29</v>
       </c>
       <c r="B222" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C222" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D222" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E222" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F222" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G222" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5899,13 +5914,13 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C223" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D223" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E223" t="s">
         <v>8</v>
@@ -5914,7 +5929,7 @@
         <v>9</v>
       </c>
       <c r="G223" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5922,13 +5937,13 @@
         <v>29</v>
       </c>
       <c r="B224" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C224" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D224" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E224" t="s">
         <v>10</v>
@@ -5937,7 +5952,7 @@
         <v>8</v>
       </c>
       <c r="G224" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5945,22 +5960,22 @@
         <v>29</v>
       </c>
       <c r="B225" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C225" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D225" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E225" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F225" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G225" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5968,14 +5983,14 @@
         <v>29</v>
       </c>
       <c r="B226" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C226" t="s">
+        <v>136</v>
+      </c>
+      <c r="D226" t="s">
         <v>131</v>
       </c>
-      <c r="D226" t="s">
-        <v>126</v>
-      </c>
       <c r="E226" t="s">
         <v>8</v>
       </c>
@@ -5983,7 +5998,7 @@
         <v>7</v>
       </c>
       <c r="G226" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5991,13 +6006,13 @@
         <v>29</v>
       </c>
       <c r="B227" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C227" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D227" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E227" t="s">
         <v>9</v>
@@ -6006,7 +6021,7 @@
         <v>7</v>
       </c>
       <c r="G227" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6014,22 +6029,22 @@
         <v>29</v>
       </c>
       <c r="B228" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C228" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D228" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E228" t="s">
         <v>7</v>
       </c>
       <c r="F228" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G228" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6037,22 +6052,22 @@
         <v>29</v>
       </c>
       <c r="B229" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C229" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D229" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E229" t="s">
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G229" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6060,13 +6075,13 @@
         <v>30</v>
       </c>
       <c r="B230" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C230" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D230" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E230" t="s">
         <v>7</v>
@@ -6075,7 +6090,7 @@
         <v>9</v>
       </c>
       <c r="G230" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6083,13 +6098,13 @@
         <v>30</v>
       </c>
       <c r="B231" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C231" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D231" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E231" t="s">
         <v>7</v>
@@ -6098,7 +6113,7 @@
         <v>9</v>
       </c>
       <c r="G231" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6106,13 +6121,13 @@
         <v>30</v>
       </c>
       <c r="B232" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C232" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D232" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E232" t="s">
         <v>8</v>
@@ -6121,7 +6136,7 @@
         <v>10</v>
       </c>
       <c r="G232" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6129,13 +6144,13 @@
         <v>30</v>
       </c>
       <c r="B233" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C233" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D233" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E233" t="s">
         <v>7</v>
@@ -6144,7 +6159,7 @@
         <v>7</v>
       </c>
       <c r="G233" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6152,13 +6167,13 @@
         <v>30</v>
       </c>
       <c r="B234" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C234" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D234" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E234" t="s">
         <v>11</v>
@@ -6167,7 +6182,7 @@
         <v>7</v>
       </c>
       <c r="G234" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6175,22 +6190,22 @@
         <v>30</v>
       </c>
       <c r="B235" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C235" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D235" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E235" t="s">
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G235" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6198,22 +6213,22 @@
         <v>30</v>
       </c>
       <c r="B236" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C236" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D236" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E236" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F236" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G236" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6221,13 +6236,13 @@
         <v>30</v>
       </c>
       <c r="B237" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C237" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D237" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E237" t="s">
         <v>7</v>
@@ -6236,7 +6251,7 @@
         <v>10</v>
       </c>
       <c r="G237" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6244,22 +6259,22 @@
         <v>30</v>
       </c>
       <c r="B238" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C238" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D238" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E238" t="s">
         <v>7</v>
       </c>
       <c r="F238" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G238" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6267,22 +6282,22 @@
         <v>30</v>
       </c>
       <c r="B239" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C239" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D239" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E239" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F239" t="s">
         <v>7</v>
       </c>
       <c r="G239" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -6290,22 +6305,22 @@
         <v>31</v>
       </c>
       <c r="B240" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C240" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D240" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E240" t="s">
         <v>8</v>
       </c>
       <c r="F240" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G240" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -6313,22 +6328,22 @@
         <v>31</v>
       </c>
       <c r="B241" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C241" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D241" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E241" t="s">
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G241" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6336,13 +6351,13 @@
         <v>31</v>
       </c>
       <c r="B242" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C242" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D242" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E242" t="s">
         <v>7</v>
@@ -6351,7 +6366,7 @@
         <v>7</v>
       </c>
       <c r="G242" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6359,13 +6374,13 @@
         <v>31</v>
       </c>
       <c r="B243" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C243" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D243" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E243" t="s">
         <v>8</v>
@@ -6374,7 +6389,7 @@
         <v>8</v>
       </c>
       <c r="G243" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6382,22 +6397,22 @@
         <v>31</v>
       </c>
       <c r="B244" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C244" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D244" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E244" t="s">
         <v>9</v>
       </c>
       <c r="F244" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G244" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6405,13 +6420,13 @@
         <v>31</v>
       </c>
       <c r="B245" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C245" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D245" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E245" t="s">
         <v>7</v>
@@ -6420,7 +6435,7 @@
         <v>8</v>
       </c>
       <c r="G245" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6428,13 +6443,13 @@
         <v>31</v>
       </c>
       <c r="B246" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C246" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D246" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E246" t="s">
         <v>7</v>
@@ -6443,7 +6458,7 @@
         <v>7</v>
       </c>
       <c r="G246" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6451,13 +6466,13 @@
         <v>31</v>
       </c>
       <c r="B247" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C247" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D247" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E247" t="s">
         <v>7</v>
@@ -6466,7 +6481,7 @@
         <v>7</v>
       </c>
       <c r="G247" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6474,22 +6489,22 @@
         <v>31</v>
       </c>
       <c r="B248" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C248" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D248" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E248" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F248" t="s">
         <v>9</v>
       </c>
       <c r="G248" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6497,13 +6512,13 @@
         <v>31</v>
       </c>
       <c r="B249" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C249" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D249" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E249" t="s">
         <v>10</v>
@@ -6512,7 +6527,237 @@
         <v>8</v>
       </c>
       <c r="G249" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>32</v>
+      </c>
+      <c r="B250" t="s">
+        <v>116</v>
+      </c>
+      <c r="C250" t="s">
+        <v>129</v>
+      </c>
+      <c r="D250" t="s">
+        <v>131</v>
+      </c>
+      <c r="E250" t="s">
+        <v>8</v>
+      </c>
+      <c r="F250" t="s">
+        <v>140</v>
+      </c>
+      <c r="G250" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>32</v>
+      </c>
+      <c r="B251" t="s">
+        <v>117</v>
+      </c>
+      <c r="C251" t="s">
+        <v>125</v>
+      </c>
+      <c r="D251" t="s">
+        <v>120</v>
+      </c>
+      <c r="E251" t="s">
+        <v>8</v>
+      </c>
+      <c r="F251" t="s">
+        <v>9</v>
+      </c>
+      <c r="G251" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>32</v>
+      </c>
+      <c r="B252" t="s">
+        <v>117</v>
+      </c>
+      <c r="C252" t="s">
+        <v>137</v>
+      </c>
+      <c r="D252" t="s">
+        <v>130</v>
+      </c>
+      <c r="E252" t="s">
+        <v>140</v>
+      </c>
+      <c r="F252" t="s">
+        <v>8</v>
+      </c>
+      <c r="G252" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>32</v>
+      </c>
+      <c r="B253" t="s">
+        <v>117</v>
+      </c>
+      <c r="C253" t="s">
+        <v>122</v>
+      </c>
+      <c r="D253" t="s">
+        <v>127</v>
+      </c>
+      <c r="E253" t="s">
+        <v>8</v>
+      </c>
+      <c r="F253" t="s">
+        <v>140</v>
+      </c>
+      <c r="G253" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>32</v>
+      </c>
+      <c r="B254" t="s">
+        <v>118</v>
+      </c>
+      <c r="C254" t="s">
+        <v>134</v>
+      </c>
+      <c r="D254" t="s">
+        <v>121</v>
+      </c>
+      <c r="E254" t="s">
+        <v>9</v>
+      </c>
+      <c r="F254" t="s">
+        <v>8</v>
+      </c>
+      <c r="G254" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>32</v>
+      </c>
+      <c r="B255" t="s">
+        <v>118</v>
+      </c>
+      <c r="C255" t="s">
+        <v>138</v>
+      </c>
+      <c r="D255" t="s">
         <v>136</v>
+      </c>
+      <c r="E255" t="s">
+        <v>7</v>
+      </c>
+      <c r="F255" t="s">
+        <v>7</v>
+      </c>
+      <c r="G255" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>32</v>
+      </c>
+      <c r="B256" t="s">
+        <v>118</v>
+      </c>
+      <c r="C256" t="s">
+        <v>126</v>
+      </c>
+      <c r="D256" t="s">
+        <v>123</v>
+      </c>
+      <c r="E256" t="s">
+        <v>140</v>
+      </c>
+      <c r="F256" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>32</v>
+      </c>
+      <c r="B257" t="s">
+        <v>118</v>
+      </c>
+      <c r="C257" t="s">
+        <v>132</v>
+      </c>
+      <c r="D257" t="s">
+        <v>139</v>
+      </c>
+      <c r="E257" t="s">
+        <v>7</v>
+      </c>
+      <c r="F257" t="s">
+        <v>7</v>
+      </c>
+      <c r="G257" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>32</v>
+      </c>
+      <c r="B258" t="s">
+        <v>119</v>
+      </c>
+      <c r="C258" t="s">
+        <v>124</v>
+      </c>
+      <c r="D258" t="s">
+        <v>128</v>
+      </c>
+      <c r="E258" t="s">
+        <v>9</v>
+      </c>
+      <c r="F258" t="s">
+        <v>8</v>
+      </c>
+      <c r="G258" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>32</v>
+      </c>
+      <c r="B259" t="s">
+        <v>119</v>
+      </c>
+      <c r="C259" t="s">
+        <v>133</v>
+      </c>
+      <c r="D259" t="s">
+        <v>135</v>
+      </c>
+      <c r="E259" t="s">
+        <v>8</v>
+      </c>
+      <c r="F259" t="s">
+        <v>7</v>
+      </c>
+      <c r="G259" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/season/season-2324_csv.xlsx
+++ b/season/season-2324_csv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="182">
   <si>
     <t>Giornata</t>
   </si>
@@ -115,6 +115,30 @@
     <t>26</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>2023-08-19</t>
   </si>
   <si>
@@ -319,6 +343,9 @@
     <t>2024-02-22</t>
   </si>
   <si>
+    <t>2024-02-28</t>
+  </si>
+  <si>
     <t>2024-01-26</t>
   </si>
   <si>
@@ -374,6 +401,99 @@
   </si>
   <si>
     <t>2024-02-26</t>
+  </si>
+  <si>
+    <t>2024-03-01</t>
+  </si>
+  <si>
+    <t>2024-03-02</t>
+  </si>
+  <si>
+    <t>2024-03-03</t>
+  </si>
+  <si>
+    <t>2024-03-04</t>
+  </si>
+  <si>
+    <t>2024-03-08</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>2024-03-10</t>
+  </si>
+  <si>
+    <t>2024-03-11</t>
+  </si>
+  <si>
+    <t>2001-01-01</t>
+  </si>
+  <si>
+    <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>2024-03-16</t>
+  </si>
+  <si>
+    <t>2024-03-17</t>
+  </si>
+  <si>
+    <t>2024-03-30</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>2024-04-05</t>
+  </si>
+  <si>
+    <t>2024-04-06</t>
+  </si>
+  <si>
+    <t>2024-04-07</t>
+  </si>
+  <si>
+    <t>2024-04-08</t>
+  </si>
+  <si>
+    <t>2024-04-12</t>
+  </si>
+  <si>
+    <t>2024-04-13</t>
+  </si>
+  <si>
+    <t>2024-04-14</t>
+  </si>
+  <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
+    <t>2024-04-25</t>
+  </si>
+  <si>
+    <t>2024-04-19</t>
+  </si>
+  <si>
+    <t>2024-04-20</t>
+  </si>
+  <si>
+    <t>2024-04-21</t>
+  </si>
+  <si>
+    <t>2024-04-22</t>
+  </si>
+  <si>
+    <t>2024-04-26</t>
+  </si>
+  <si>
+    <t>2024-04-27</t>
+  </si>
+  <si>
+    <t>2024-04-28</t>
+  </si>
+  <si>
+    <t>2024-04-29</t>
   </si>
   <si>
     <t>Empoli</t>
@@ -797,7 +917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G259"/>
+  <dimension ref="A1:G340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -831,22 +951,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -854,13 +974,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -869,7 +989,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -877,13 +997,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -892,7 +1012,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -900,22 +1020,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -923,13 +1043,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -938,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -946,22 +1066,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -969,13 +1089,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -984,7 +1104,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -992,22 +1112,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1015,22 +1135,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G10" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1038,22 +1158,22 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1061,13 +1181,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1076,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1084,22 +1204,22 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G13" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1107,13 +1227,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1122,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1130,13 +1250,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1145,7 +1265,7 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1153,13 +1273,13 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1168,7 +1288,7 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1176,13 +1296,13 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -1191,7 +1311,7 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1199,22 +1319,22 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1222,22 +1342,22 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1245,13 +1365,13 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -1260,7 +1380,7 @@
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1268,22 +1388,22 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1291,13 +1411,13 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -1306,7 +1426,7 @@
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1314,13 +1434,13 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -1329,7 +1449,7 @@
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1337,13 +1457,13 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -1352,7 +1472,7 @@
         <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1360,22 +1480,22 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G25" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1383,22 +1503,22 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G26" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1406,13 +1526,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -1421,7 +1541,7 @@
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1429,22 +1549,22 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G28" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1452,22 +1572,22 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G29" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1475,22 +1595,22 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="E30" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1498,22 +1618,22 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G31" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1521,13 +1641,13 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1536,7 +1656,7 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1544,13 +1664,13 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -1559,7 +1679,7 @@
         <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1567,13 +1687,13 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -1582,7 +1702,7 @@
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1590,22 +1710,22 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G35" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1613,13 +1733,13 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -1628,7 +1748,7 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1636,13 +1756,13 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -1651,7 +1771,7 @@
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1659,13 +1779,13 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1674,7 +1794,7 @@
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1682,22 +1802,22 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G39" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1705,22 +1825,22 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="E40" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1728,22 +1848,22 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="E41" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F41" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G41" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1751,13 +1871,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
@@ -1766,7 +1886,7 @@
         <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1774,22 +1894,22 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G43" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1797,22 +1917,22 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G44" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1820,13 +1940,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -1835,7 +1955,7 @@
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1843,13 +1963,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
@@ -1858,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1866,22 +1986,22 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="E47" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1889,22 +2009,22 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G48" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1912,22 +2032,22 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="E49" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F49" t="s">
         <v>8</v>
       </c>
       <c r="G49" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1935,22 +2055,22 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F50" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G50" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1958,13 +2078,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -1973,7 +2093,7 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1981,22 +2101,22 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="D52" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G52" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2004,13 +2124,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
@@ -2019,7 +2139,7 @@
         <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2027,22 +2147,22 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G54" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2050,22 +2170,22 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E55" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2073,13 +2193,13 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
@@ -2088,7 +2208,7 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2096,22 +2216,22 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D57" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G57" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2119,13 +2239,13 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D58" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
@@ -2134,7 +2254,7 @@
         <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2142,13 +2262,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D59" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
@@ -2157,7 +2277,7 @@
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2165,22 +2285,22 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="E60" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F60" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G60" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2188,13 +2308,13 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="D61" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
@@ -2203,7 +2323,7 @@
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2211,22 +2331,22 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="D62" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E62" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2234,22 +2354,22 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D63" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G63" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2257,22 +2377,22 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D64" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="E64" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2280,22 +2400,22 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D65" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G65" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2303,13 +2423,13 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D66" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
@@ -2318,7 +2438,7 @@
         <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2326,22 +2446,22 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D67" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="E67" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F67" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G67" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2349,22 +2469,22 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D68" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G68" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2372,22 +2492,22 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C69" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="D69" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E69" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F69" t="s">
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2395,22 +2515,22 @@
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="E70" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G70" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2418,22 +2538,22 @@
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="D71" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G71" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2441,22 +2561,22 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="E72" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G72" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2464,13 +2584,13 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C73" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="D73" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
@@ -2479,7 +2599,7 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2487,13 +2607,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C74" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="D74" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -2502,7 +2622,7 @@
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2510,22 +2630,22 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="D75" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G75" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2533,22 +2653,22 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="D76" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="E76" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F76" t="s">
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2556,22 +2676,22 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C77" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D77" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G77" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2579,13 +2699,13 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C78" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D78" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
@@ -2594,7 +2714,7 @@
         <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2602,13 +2722,13 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C79" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D79" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
@@ -2617,7 +2737,7 @@
         <v>8</v>
       </c>
       <c r="G79" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2625,13 +2745,13 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C80" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="D80" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E80" t="s">
         <v>7</v>
@@ -2640,7 +2760,7 @@
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2648,13 +2768,13 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D81" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
@@ -2663,7 +2783,7 @@
         <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2671,13 +2791,13 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C82" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D82" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
@@ -2686,7 +2806,7 @@
         <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2694,22 +2814,22 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C83" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D83" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="E83" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2717,22 +2837,22 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C84" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="D84" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E84" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F84" t="s">
         <v>8</v>
       </c>
       <c r="G84" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2740,22 +2860,22 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C85" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D85" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G85" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2763,13 +2883,13 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C86" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D86" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
@@ -2778,7 +2898,7 @@
         <v>7</v>
       </c>
       <c r="G86" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2786,13 +2906,13 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C87" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D87" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
@@ -2801,7 +2921,7 @@
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2809,22 +2929,22 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C88" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D88" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G88" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2832,22 +2952,22 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C89" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D89" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="E89" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F89" t="s">
         <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2855,13 +2975,13 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C90" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D90" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="E90" t="s">
         <v>7</v>
@@ -2870,7 +2990,7 @@
         <v>7</v>
       </c>
       <c r="G90" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2878,22 +2998,22 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C91" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="D91" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E91" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F91" t="s">
         <v>8</v>
       </c>
       <c r="G91" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2901,22 +3021,22 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C92" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="D92" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="E92" t="s">
         <v>7</v>
       </c>
       <c r="F92" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G92" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2924,13 +3044,13 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C93" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="D93" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="E93" t="s">
         <v>7</v>
@@ -2939,7 +3059,7 @@
         <v>7</v>
       </c>
       <c r="G93" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2947,22 +3067,22 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C94" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="D94" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="E94" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
         <v>7</v>
       </c>
       <c r="G94" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2970,22 +3090,22 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C95" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="D95" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="E95" t="s">
         <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G95" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2993,13 +3113,13 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C96" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="D96" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
@@ -3008,7 +3128,7 @@
         <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3016,13 +3136,13 @@
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C97" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D97" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="E97" t="s">
         <v>7</v>
@@ -3031,7 +3151,7 @@
         <v>7</v>
       </c>
       <c r="G97" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3039,22 +3159,22 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C98" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="D98" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E98" t="s">
         <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G98" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3062,13 +3182,13 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C99" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -3077,7 +3197,7 @@
         <v>8</v>
       </c>
       <c r="G99" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3085,22 +3205,22 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C100" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D100" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E100" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F100" t="s">
         <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3108,22 +3228,22 @@
         <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C101" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D101" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="E101" t="s">
         <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G101" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3131,22 +3251,22 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C102" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E102" t="s">
         <v>7</v>
       </c>
       <c r="F102" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G102" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3154,22 +3274,22 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C103" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E103" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F103" t="s">
         <v>8</v>
       </c>
       <c r="G103" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3177,13 +3297,13 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C104" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D104" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="E104" t="s">
         <v>7</v>
@@ -3192,7 +3312,7 @@
         <v>8</v>
       </c>
       <c r="G104" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3200,22 +3320,22 @@
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C105" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D105" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="E105" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F105" t="s">
         <v>7</v>
       </c>
       <c r="G105" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3223,13 +3343,13 @@
         <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C106" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D106" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E106" t="s">
         <v>7</v>
@@ -3238,7 +3358,7 @@
         <v>9</v>
       </c>
       <c r="G106" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3246,13 +3366,13 @@
         <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C107" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="D107" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
@@ -3261,7 +3381,7 @@
         <v>7</v>
       </c>
       <c r="G107" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3269,13 +3389,13 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C108" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D108" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="E108" t="s">
         <v>8</v>
@@ -3284,7 +3404,7 @@
         <v>7</v>
       </c>
       <c r="G108" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3292,22 +3412,22 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C109" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="D109" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="E109" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F109" t="s">
         <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3315,13 +3435,13 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C110" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D110" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
@@ -3330,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="G110" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3338,13 +3458,13 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C111" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D111" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
@@ -3353,7 +3473,7 @@
         <v>7</v>
       </c>
       <c r="G111" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3361,13 +3481,13 @@
         <v>18</v>
       </c>
       <c r="B112" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C112" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="D112" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="E112" t="s">
         <v>8</v>
@@ -3376,7 +3496,7 @@
         <v>8</v>
       </c>
       <c r="G112" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3384,22 +3504,22 @@
         <v>18</v>
       </c>
       <c r="B113" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C113" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="D113" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="E113" t="s">
         <v>7</v>
       </c>
       <c r="F113" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G113" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3407,13 +3527,13 @@
         <v>18</v>
       </c>
       <c r="B114" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C114" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="D114" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="E114" t="s">
         <v>8</v>
@@ -3422,7 +3542,7 @@
         <v>8</v>
       </c>
       <c r="G114" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3430,13 +3550,13 @@
         <v>18</v>
       </c>
       <c r="B115" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C115" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="D115" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="E115" t="s">
         <v>8</v>
@@ -3445,7 +3565,7 @@
         <v>7</v>
       </c>
       <c r="G115" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3453,13 +3573,13 @@
         <v>18</v>
       </c>
       <c r="B116" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C116" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D116" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="E116" t="s">
         <v>7</v>
@@ -3468,7 +3588,7 @@
         <v>7</v>
       </c>
       <c r="G116" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3476,22 +3596,22 @@
         <v>18</v>
       </c>
       <c r="B117" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C117" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D117" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E117" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F117" t="s">
         <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3499,13 +3619,13 @@
         <v>18</v>
       </c>
       <c r="B118" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C118" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="D118" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
@@ -3514,7 +3634,7 @@
         <v>7</v>
       </c>
       <c r="G118" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3522,13 +3642,13 @@
         <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C119" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D119" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E119" t="s">
         <v>7</v>
@@ -3537,7 +3657,7 @@
         <v>7</v>
       </c>
       <c r="G119" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3545,22 +3665,22 @@
         <v>18</v>
       </c>
       <c r="B120" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C120" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D120" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E120" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F120" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G120" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3568,22 +3688,22 @@
         <v>18</v>
       </c>
       <c r="B121" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C121" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="D121" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="E121" t="s">
         <v>8</v>
       </c>
       <c r="F121" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G121" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3591,13 +3711,13 @@
         <v>19</v>
       </c>
       <c r="B122" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C122" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D122" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E122" t="s">
         <v>8</v>
@@ -3606,7 +3726,7 @@
         <v>7</v>
       </c>
       <c r="G122" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3614,13 +3734,13 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C123" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D123" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E123" t="s">
         <v>7</v>
@@ -3629,7 +3749,7 @@
         <v>8</v>
       </c>
       <c r="G123" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3637,22 +3757,22 @@
         <v>19</v>
       </c>
       <c r="B124" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C124" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D124" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="E124" t="s">
         <v>7</v>
       </c>
       <c r="F124" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G124" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3660,13 +3780,13 @@
         <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="D125" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E125" t="s">
         <v>7</v>
@@ -3675,7 +3795,7 @@
         <v>7</v>
       </c>
       <c r="G125" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3683,13 +3803,13 @@
         <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C126" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D126" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="E126" t="s">
         <v>9</v>
@@ -3698,7 +3818,7 @@
         <v>10</v>
       </c>
       <c r="G126" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3706,13 +3826,13 @@
         <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C127" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D127" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
@@ -3721,7 +3841,7 @@
         <v>7</v>
       </c>
       <c r="G127" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3729,13 +3849,13 @@
         <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C128" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D128" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
@@ -3744,7 +3864,7 @@
         <v>7</v>
       </c>
       <c r="G128" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3752,13 +3872,13 @@
         <v>19</v>
       </c>
       <c r="B129" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C129" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="D129" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="E129" t="s">
         <v>7</v>
@@ -3767,7 +3887,7 @@
         <v>7</v>
       </c>
       <c r="G129" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3775,13 +3895,13 @@
         <v>19</v>
       </c>
       <c r="B130" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C130" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D130" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
@@ -3790,7 +3910,7 @@
         <v>8</v>
       </c>
       <c r="G130" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3798,22 +3918,22 @@
         <v>19</v>
       </c>
       <c r="B131" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C131" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D131" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="E131" t="s">
         <v>8</v>
       </c>
       <c r="F131" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G131" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3821,13 +3941,13 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C132" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D132" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="E132" t="s">
         <v>7</v>
@@ -3836,7 +3956,7 @@
         <v>8</v>
       </c>
       <c r="G132" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3844,13 +3964,13 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C133" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="D133" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E133" t="s">
         <v>7</v>
@@ -3859,7 +3979,7 @@
         <v>7</v>
       </c>
       <c r="G133" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3867,22 +3987,22 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C134" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D134" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="E134" t="s">
         <v>7</v>
       </c>
       <c r="F134" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G134" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3890,13 +4010,13 @@
         <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C135" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D135" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="E135" t="s">
         <v>9</v>
@@ -3905,7 +4025,7 @@
         <v>7</v>
       </c>
       <c r="G135" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3913,13 +4033,13 @@
         <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C136" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="D136" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="E136" t="s">
         <v>7</v>
@@ -3928,7 +4048,7 @@
         <v>7</v>
       </c>
       <c r="G136" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3936,22 +4056,22 @@
         <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C137" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="D137" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="E137" t="s">
         <v>9</v>
       </c>
       <c r="F137" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G137" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3959,13 +4079,13 @@
         <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C138" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D138" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="E138" t="s">
         <v>9</v>
@@ -3974,7 +4094,7 @@
         <v>9</v>
       </c>
       <c r="G138" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3982,13 +4102,13 @@
         <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C139" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="D139" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E139" t="s">
         <v>7</v>
@@ -3997,7 +4117,7 @@
         <v>8</v>
       </c>
       <c r="G139" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4005,22 +4125,22 @@
         <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C140" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D140" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="E140" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F140" t="s">
         <v>9</v>
       </c>
       <c r="G140" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4028,22 +4148,22 @@
         <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C141" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D141" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E141" t="s">
         <v>9</v>
       </c>
       <c r="F141" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G141" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4051,22 +4171,22 @@
         <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C142" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="D142" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E142" t="s">
         <v>7</v>
       </c>
       <c r="F142" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G142" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4074,13 +4194,13 @@
         <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C143" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D143" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E143" t="s">
         <v>7</v>
@@ -4089,7 +4209,7 @@
         <v>7</v>
       </c>
       <c r="G143" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4097,13 +4217,13 @@
         <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C144" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D144" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="E144" t="s">
         <v>9</v>
@@ -4112,7 +4232,7 @@
         <v>8</v>
       </c>
       <c r="G144" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4120,22 +4240,22 @@
         <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C145" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="D145" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="E145" t="s">
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G145" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4143,22 +4263,22 @@
         <v>21</v>
       </c>
       <c r="B146" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C146" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D146" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="E146" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F146" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G146" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4166,22 +4286,22 @@
         <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C147" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D147" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="E147" t="s">
         <v>7</v>
       </c>
       <c r="F147" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G147" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4189,13 +4309,13 @@
         <v>21</v>
       </c>
       <c r="B148" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C148" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D148" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="E148" t="s">
         <v>7</v>
@@ -4204,7 +4324,7 @@
         <v>8</v>
       </c>
       <c r="G148" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4212,13 +4332,13 @@
         <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C149" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D149" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="E149" t="s">
         <v>7</v>
@@ -4227,7 +4347,7 @@
         <v>7</v>
       </c>
       <c r="G149" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4235,13 +4355,13 @@
         <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C150" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D150" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="E150" t="s">
         <v>7</v>
@@ -4250,7 +4370,7 @@
         <v>7</v>
       </c>
       <c r="G150" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4258,13 +4378,13 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C151" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="D151" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="E151" t="s">
         <v>8</v>
@@ -4273,7 +4393,7 @@
         <v>7</v>
       </c>
       <c r="G151" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4281,13 +4401,13 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C152" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="D152" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="E152" t="s">
         <v>7</v>
@@ -4296,7 +4416,7 @@
         <v>7</v>
       </c>
       <c r="G152" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4304,13 +4424,13 @@
         <v>22</v>
       </c>
       <c r="B153" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C153" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="D153" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="E153" t="s">
         <v>8</v>
@@ -4319,7 +4439,7 @@
         <v>7</v>
       </c>
       <c r="G153" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4327,13 +4447,13 @@
         <v>22</v>
       </c>
       <c r="B154" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C154" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D154" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="E154" t="s">
         <v>8</v>
@@ -4342,7 +4462,7 @@
         <v>7</v>
       </c>
       <c r="G154" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4350,22 +4470,22 @@
         <v>22</v>
       </c>
       <c r="B155" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C155" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D155" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E155" t="s">
         <v>7</v>
       </c>
       <c r="F155" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G155" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4373,22 +4493,22 @@
         <v>22</v>
       </c>
       <c r="B156" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C156" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D156" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E156" t="s">
         <v>9</v>
       </c>
       <c r="F156" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G156" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4396,22 +4516,22 @@
         <v>22</v>
       </c>
       <c r="B157" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C157" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="D157" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="E157" t="s">
         <v>7</v>
       </c>
       <c r="F157" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G157" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4419,13 +4539,13 @@
         <v>22</v>
       </c>
       <c r="B158" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C158" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D158" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="E158" t="s">
         <v>8</v>
@@ -4434,7 +4554,7 @@
         <v>8</v>
       </c>
       <c r="G158" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4442,22 +4562,22 @@
         <v>22</v>
       </c>
       <c r="B159" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C159" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D159" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
       </c>
       <c r="F159" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G159" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4465,22 +4585,22 @@
         <v>22</v>
       </c>
       <c r="B160" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C160" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D160" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="E160" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F160" t="s">
         <v>8</v>
       </c>
       <c r="G160" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4488,13 +4608,13 @@
         <v>22</v>
       </c>
       <c r="B161" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C161" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D161" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="E161" t="s">
         <v>10</v>
@@ -4503,7 +4623,7 @@
         <v>7</v>
       </c>
       <c r="G161" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4511,22 +4631,22 @@
         <v>23</v>
       </c>
       <c r="B162" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C162" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D162" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E162" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F162" t="s">
         <v>8</v>
       </c>
       <c r="G162" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4534,13 +4654,13 @@
         <v>23</v>
       </c>
       <c r="B163" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C163" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="D163" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="E163" t="s">
         <v>7</v>
@@ -4549,7 +4669,7 @@
         <v>8</v>
       </c>
       <c r="G163" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4557,22 +4677,22 @@
         <v>23</v>
       </c>
       <c r="B164" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C164" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D164" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="E164" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F164" t="s">
         <v>7</v>
       </c>
       <c r="G164" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4580,13 +4700,13 @@
         <v>23</v>
       </c>
       <c r="B165" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C165" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D165" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="E165" t="s">
         <v>8</v>
@@ -4595,7 +4715,7 @@
         <v>8</v>
       </c>
       <c r="G165" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4603,13 +4723,13 @@
         <v>23</v>
       </c>
       <c r="B166" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C166" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D166" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="E166" t="s">
         <v>7</v>
@@ -4618,7 +4738,7 @@
         <v>8</v>
       </c>
       <c r="G166" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4626,22 +4746,22 @@
         <v>23</v>
       </c>
       <c r="B167" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C167" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D167" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E167" t="s">
         <v>7</v>
       </c>
       <c r="F167" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G167" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4649,13 +4769,13 @@
         <v>23</v>
       </c>
       <c r="B168" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C168" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D168" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="E168" t="s">
         <v>7</v>
@@ -4664,7 +4784,7 @@
         <v>7</v>
       </c>
       <c r="G168" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4672,22 +4792,22 @@
         <v>23</v>
       </c>
       <c r="B169" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C169" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D169" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="E169" t="s">
         <v>8</v>
       </c>
       <c r="F169" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G169" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4695,22 +4815,22 @@
         <v>23</v>
       </c>
       <c r="B170" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C170" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="D170" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="E170" t="s">
         <v>8</v>
       </c>
       <c r="F170" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G170" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4718,22 +4838,22 @@
         <v>23</v>
       </c>
       <c r="B171" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C171" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D171" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E171" t="s">
         <v>8</v>
       </c>
       <c r="F171" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G171" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4741,22 +4861,22 @@
         <v>24</v>
       </c>
       <c r="B172" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C172" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="D172" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="E172" t="s">
         <v>7</v>
       </c>
       <c r="F172" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G172" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4764,22 +4884,22 @@
         <v>24</v>
       </c>
       <c r="B173" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C173" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D173" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E173" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F173" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G173" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4787,13 +4907,13 @@
         <v>24</v>
       </c>
       <c r="B174" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C174" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="D174" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="E174" t="s">
         <v>7</v>
@@ -4802,7 +4922,7 @@
         <v>7</v>
       </c>
       <c r="G174" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4810,13 +4930,13 @@
         <v>24</v>
       </c>
       <c r="B175" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C175" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D175" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="E175" t="s">
         <v>9</v>
@@ -4825,7 +4945,7 @@
         <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4833,22 +4953,22 @@
         <v>24</v>
       </c>
       <c r="B176" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C176" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D176" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="E176" t="s">
         <v>7</v>
       </c>
       <c r="F176" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G176" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4856,22 +4976,22 @@
         <v>24</v>
       </c>
       <c r="B177" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C177" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="D177" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E177" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F177" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G177" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4879,22 +4999,22 @@
         <v>24</v>
       </c>
       <c r="B178" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C178" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D178" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="E178" t="s">
         <v>9</v>
       </c>
       <c r="F178" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G178" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4902,22 +5022,22 @@
         <v>24</v>
       </c>
       <c r="B179" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C179" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D179" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="E179" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F179" t="s">
         <v>7</v>
       </c>
       <c r="G179" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4925,22 +5045,22 @@
         <v>24</v>
       </c>
       <c r="B180" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C180" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D180" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="E180" t="s">
         <v>7</v>
       </c>
       <c r="F180" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G180" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4948,22 +5068,22 @@
         <v>24</v>
       </c>
       <c r="B181" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C181" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="D181" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E181" t="s">
         <v>7</v>
       </c>
       <c r="F181" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G181" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4971,13 +5091,13 @@
         <v>25</v>
       </c>
       <c r="B182" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C182" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D182" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="E182" t="s">
         <v>7</v>
@@ -4986,7 +5106,7 @@
         <v>7</v>
       </c>
       <c r="G182" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4994,13 +5114,13 @@
         <v>25</v>
       </c>
       <c r="B183" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C183" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="D183" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="E183" t="s">
         <v>8</v>
@@ -5009,7 +5129,7 @@
         <v>7</v>
       </c>
       <c r="G183" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5017,13 +5137,13 @@
         <v>25</v>
       </c>
       <c r="B184" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C184" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D184" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E184" t="s">
         <v>8</v>
@@ -5032,7 +5152,7 @@
         <v>9</v>
       </c>
       <c r="G184" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5040,13 +5160,13 @@
         <v>25</v>
       </c>
       <c r="B185" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C185" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="D185" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="E185" t="s">
         <v>7</v>
@@ -5055,7 +5175,7 @@
         <v>7</v>
       </c>
       <c r="G185" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5063,22 +5183,22 @@
         <v>25</v>
       </c>
       <c r="B186" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C186" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="D186" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="E186" t="s">
         <v>7</v>
       </c>
       <c r="F186" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G186" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5086,22 +5206,22 @@
         <v>25</v>
       </c>
       <c r="B187" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C187" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D187" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="E187" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F187" t="s">
         <v>9</v>
       </c>
       <c r="G187" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5109,22 +5229,22 @@
         <v>25</v>
       </c>
       <c r="B188" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C188" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D188" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E188" t="s">
         <v>9</v>
       </c>
       <c r="F188" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G188" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5132,13 +5252,13 @@
         <v>25</v>
       </c>
       <c r="B189" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C189" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D189" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E189" t="s">
         <v>7</v>
@@ -5147,7 +5267,7 @@
         <v>8</v>
       </c>
       <c r="G189" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5155,13 +5275,13 @@
         <v>25</v>
       </c>
       <c r="B190" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C190" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D190" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="E190" t="s">
         <v>7</v>
@@ -5170,7 +5290,7 @@
         <v>8</v>
       </c>
       <c r="G190" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5178,13 +5298,13 @@
         <v>25</v>
       </c>
       <c r="B191" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C191" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D191" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E191" t="s">
         <v>7</v>
@@ -5193,7 +5313,7 @@
         <v>7</v>
       </c>
       <c r="G191" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5201,22 +5321,22 @@
         <v>26</v>
       </c>
       <c r="B192" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C192" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="D192" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="E192" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F192" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G192" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5224,13 +5344,13 @@
         <v>26</v>
       </c>
       <c r="B193" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C193" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D193" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="E193" t="s">
         <v>8</v>
@@ -5239,7 +5359,7 @@
         <v>7</v>
       </c>
       <c r="G193" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5247,13 +5367,13 @@
         <v>26</v>
       </c>
       <c r="B194" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C194" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D194" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E194" t="s">
         <v>8</v>
@@ -5262,7 +5382,7 @@
         <v>7</v>
       </c>
       <c r="G194" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5270,13 +5390,13 @@
         <v>26</v>
       </c>
       <c r="B195" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C195" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D195" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="E195" t="s">
         <v>7</v>
@@ -5285,7 +5405,7 @@
         <v>11</v>
       </c>
       <c r="G195" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5293,22 +5413,22 @@
         <v>26</v>
       </c>
       <c r="B196" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C196" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D196" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="E196" t="s">
         <v>7</v>
       </c>
       <c r="F196" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G196" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5316,13 +5436,13 @@
         <v>26</v>
       </c>
       <c r="B197" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C197" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="D197" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="E197" t="s">
         <v>8</v>
@@ -5331,7 +5451,7 @@
         <v>7</v>
       </c>
       <c r="G197" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5339,13 +5459,13 @@
         <v>26</v>
       </c>
       <c r="B198" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C198" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="D198" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="E198" t="s">
         <v>8</v>
@@ -5354,7 +5474,7 @@
         <v>8</v>
       </c>
       <c r="G198" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5362,13 +5482,13 @@
         <v>26</v>
       </c>
       <c r="B199" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C199" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D199" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E199" t="s">
         <v>9</v>
@@ -5377,7 +5497,7 @@
         <v>7</v>
       </c>
       <c r="G199" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5385,22 +5505,22 @@
         <v>26</v>
       </c>
       <c r="B200" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C200" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D200" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="E200" t="s">
         <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G200" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5408,22 +5528,22 @@
         <v>26</v>
       </c>
       <c r="B201" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C201" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="D201" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="E201" t="s">
         <v>9</v>
       </c>
       <c r="F201" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G201" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5431,13 +5551,13 @@
         <v>27</v>
       </c>
       <c r="B202" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C202" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D202" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="E202" t="s">
         <v>8</v>
@@ -5446,7 +5566,7 @@
         <v>7</v>
       </c>
       <c r="G202" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5454,13 +5574,13 @@
         <v>27</v>
       </c>
       <c r="B203" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C203" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D203" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="E203" t="s">
         <v>8</v>
@@ -5469,7 +5589,7 @@
         <v>9</v>
       </c>
       <c r="G203" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5477,13 +5597,13 @@
         <v>27</v>
       </c>
       <c r="B204" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C204" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D204" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="E204" t="s">
         <v>9</v>
@@ -5492,7 +5612,7 @@
         <v>7</v>
       </c>
       <c r="G204" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5500,22 +5620,22 @@
         <v>27</v>
       </c>
       <c r="B205" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C205" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D205" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E205" t="s">
         <v>9</v>
       </c>
       <c r="F205" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G205" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5523,13 +5643,13 @@
         <v>27</v>
       </c>
       <c r="B206" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C206" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D206" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="E206" t="s">
         <v>7</v>
@@ -5538,7 +5658,7 @@
         <v>8</v>
       </c>
       <c r="G206" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5546,22 +5666,22 @@
         <v>27</v>
       </c>
       <c r="B207" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C207" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="D207" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="E207" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F207" t="s">
         <v>9</v>
       </c>
       <c r="G207" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5569,22 +5689,22 @@
         <v>27</v>
       </c>
       <c r="B208" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C208" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D208" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="E208" t="s">
         <v>8</v>
       </c>
       <c r="F208" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G208" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5592,68 +5712,68 @@
         <v>27</v>
       </c>
       <c r="B209" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C209" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D209" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E209" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F209" t="s">
         <v>8</v>
       </c>
       <c r="G209" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B210" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C210" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="D210" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="E210" t="s">
         <v>7</v>
       </c>
       <c r="F210" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G210" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B211" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C211" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="D211" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="E211" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G211" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5661,22 +5781,22 @@
         <v>28</v>
       </c>
       <c r="B212" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C212" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="D212" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E212" t="s">
         <v>7</v>
       </c>
       <c r="F212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G212" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5684,22 +5804,22 @@
         <v>28</v>
       </c>
       <c r="B213" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C213" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="D213" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="E213" t="s">
         <v>8</v>
       </c>
       <c r="F213" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="G213" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5707,22 +5827,22 @@
         <v>28</v>
       </c>
       <c r="B214" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C214" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="D214" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="E214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F214" t="s">
         <v>7</v>
       </c>
       <c r="G214" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5730,22 +5850,22 @@
         <v>28</v>
       </c>
       <c r="B215" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C215" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="D215" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="E215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G215" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5753,22 +5873,22 @@
         <v>28</v>
       </c>
       <c r="B216" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C216" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="D216" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="E216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F216" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="G216" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5776,22 +5896,22 @@
         <v>28</v>
       </c>
       <c r="B217" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C217" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="D217" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="E217" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="F217" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="G217" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5799,22 +5919,22 @@
         <v>28</v>
       </c>
       <c r="B218" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C218" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="D218" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="E218" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="F218" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="G218" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5822,68 +5942,68 @@
         <v>28</v>
       </c>
       <c r="B219" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C219" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="D219" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="E219" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="F219" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="G219" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B220" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C220" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="D220" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="E220" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="F220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G220" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B221" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C221" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="D221" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="E221" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="F221" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="G221" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5891,22 +6011,22 @@
         <v>29</v>
       </c>
       <c r="B222" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C222" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="D222" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="E222" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F222" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="G222" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5914,22 +6034,22 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C223" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="D223" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="E223" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="F223" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="G223" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5937,22 +6057,22 @@
         <v>29</v>
       </c>
       <c r="B224" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C224" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="D224" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="F224" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="G224" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5960,22 +6080,22 @@
         <v>29</v>
       </c>
       <c r="B225" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C225" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="D225" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="E225" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="F225" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="G225" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5983,22 +6103,22 @@
         <v>29</v>
       </c>
       <c r="B226" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C226" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D226" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="E226" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G226" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6006,22 +6126,22 @@
         <v>29</v>
       </c>
       <c r="B227" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C227" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="D227" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="E227" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="F227" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="G227" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6029,22 +6149,22 @@
         <v>29</v>
       </c>
       <c r="B228" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C228" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="D228" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="E228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F228" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="G228" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6052,68 +6172,68 @@
         <v>29</v>
       </c>
       <c r="B229" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C229" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="D229" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F229" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="G229" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B230" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C230" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D230" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="E230" t="s">
         <v>7</v>
       </c>
       <c r="F230" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="G230" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B231" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C231" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="D231" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="E231" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="G231" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6121,22 +6241,22 @@
         <v>30</v>
       </c>
       <c r="B232" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C232" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="D232" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="E232" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F232" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G232" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6144,22 +6264,22 @@
         <v>30</v>
       </c>
       <c r="B233" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C233" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="D233" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="E233" t="s">
         <v>7</v>
       </c>
       <c r="F233" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G233" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6167,22 +6287,22 @@
         <v>30</v>
       </c>
       <c r="B234" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C234" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="D234" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="E234" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F234" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G234" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6190,22 +6310,22 @@
         <v>30</v>
       </c>
       <c r="B235" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C235" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="D235" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="E235" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F235" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="G235" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6213,22 +6333,22 @@
         <v>30</v>
       </c>
       <c r="B236" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C236" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="D236" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="E236" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="F236" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="G236" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6236,22 +6356,22 @@
         <v>30</v>
       </c>
       <c r="B237" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C237" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="D237" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="E237" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G237" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6259,22 +6379,22 @@
         <v>30</v>
       </c>
       <c r="B238" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C238" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="D238" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="E238" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="F238" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G238" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6282,68 +6402,68 @@
         <v>30</v>
       </c>
       <c r="B239" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C239" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D239" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="E239" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="F239" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G239" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B240" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C240" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="D240" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="E240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F240" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G240" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B241" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C241" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="D241" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="E241" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="F241" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="G241" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6351,22 +6471,22 @@
         <v>31</v>
       </c>
       <c r="B242" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C242" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="D242" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="E242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F242" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="G242" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6374,22 +6494,22 @@
         <v>31</v>
       </c>
       <c r="B243" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C243" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="D243" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="E243" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="G243" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6397,22 +6517,22 @@
         <v>31</v>
       </c>
       <c r="B244" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C244" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="D244" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="E244" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F244" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="G244" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6420,22 +6540,22 @@
         <v>31</v>
       </c>
       <c r="B245" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C245" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="D245" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="E245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F245" t="s">
         <v>8</v>
       </c>
       <c r="G245" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6443,22 +6563,22 @@
         <v>31</v>
       </c>
       <c r="B246" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C246" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="D246" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="E246" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F246" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="G246" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6466,22 +6586,22 @@
         <v>31</v>
       </c>
       <c r="B247" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C247" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="D247" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="E247" t="s">
         <v>7</v>
       </c>
       <c r="F247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G247" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6489,22 +6609,22 @@
         <v>31</v>
       </c>
       <c r="B248" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C248" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="D248" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="E248" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="F248" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G248" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6512,68 +6632,68 @@
         <v>31</v>
       </c>
       <c r="B249" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C249" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="D249" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="E249" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G249" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B250" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C250" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="D250" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="E250" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="F250" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="G250" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B251" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C251" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="D251" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="E251" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G251" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6581,22 +6701,22 @@
         <v>32</v>
       </c>
       <c r="B252" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C252" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="D252" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="E252" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="F252" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="G252" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6604,22 +6724,22 @@
         <v>32</v>
       </c>
       <c r="B253" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C253" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="D253" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="E253" t="s">
         <v>8</v>
       </c>
       <c r="F253" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="G253" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6627,22 +6747,22 @@
         <v>32</v>
       </c>
       <c r="B254" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C254" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="D254" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="E254" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="F254" t="s">
         <v>8</v>
       </c>
       <c r="G254" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6650,22 +6770,22 @@
         <v>32</v>
       </c>
       <c r="B255" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C255" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="D255" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="E255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F255" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="G255" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6673,22 +6793,22 @@
         <v>32</v>
       </c>
       <c r="B256" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C256" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="D256" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="E256" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F256" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G256" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6696,13 +6816,13 @@
         <v>32</v>
       </c>
       <c r="B257" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C257" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D257" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="E257" t="s">
         <v>7</v>
@@ -6711,7 +6831,7 @@
         <v>7</v>
       </c>
       <c r="G257" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6719,22 +6839,22 @@
         <v>32</v>
       </c>
       <c r="B258" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C258" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D258" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="E258" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="F258" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G258" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6742,22 +6862,1885 @@
         <v>32</v>
       </c>
       <c r="B259" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C259" t="s">
+        <v>172</v>
+      </c>
+      <c r="D259" t="s">
+        <v>179</v>
+      </c>
+      <c r="E259" t="s">
+        <v>7</v>
+      </c>
+      <c r="F259" t="s">
+        <v>7</v>
+      </c>
+      <c r="G259" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>32</v>
+      </c>
+      <c r="B260" t="s">
+        <v>128</v>
+      </c>
+      <c r="C260" t="s">
+        <v>164</v>
+      </c>
+      <c r="D260" t="s">
+        <v>168</v>
+      </c>
+      <c r="E260" t="s">
+        <v>9</v>
+      </c>
+      <c r="F260" t="s">
+        <v>8</v>
+      </c>
+      <c r="G260" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>32</v>
+      </c>
+      <c r="B261" t="s">
+        <v>128</v>
+      </c>
+      <c r="C261" t="s">
+        <v>173</v>
+      </c>
+      <c r="D261" t="s">
+        <v>175</v>
+      </c>
+      <c r="E261" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261" t="s">
+        <v>7</v>
+      </c>
+      <c r="G261" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>33</v>
+      </c>
+      <c r="B262" t="s">
+        <v>129</v>
+      </c>
+      <c r="C262" t="s">
+        <v>175</v>
+      </c>
+      <c r="D262" t="s">
+        <v>172</v>
+      </c>
+      <c r="E262" t="s">
+        <v>180</v>
+      </c>
+      <c r="F262" t="s">
+        <v>7</v>
+      </c>
+      <c r="G262" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>33</v>
+      </c>
+      <c r="B263" t="s">
+        <v>130</v>
+      </c>
+      <c r="C263" t="s">
+        <v>167</v>
+      </c>
+      <c r="D263" t="s">
+        <v>177</v>
+      </c>
+      <c r="E263" t="s">
+        <v>7</v>
+      </c>
+      <c r="F263" t="s">
+        <v>7</v>
+      </c>
+      <c r="G263" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>33</v>
+      </c>
+      <c r="B264" t="s">
+        <v>130</v>
+      </c>
+      <c r="C264" t="s">
+        <v>170</v>
+      </c>
+      <c r="D264" t="s">
+        <v>164</v>
+      </c>
+      <c r="E264" t="s">
+        <v>7</v>
+      </c>
+      <c r="F264" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" t="s">
+        <v>33</v>
+      </c>
+      <c r="B265" t="s">
+        <v>130</v>
+      </c>
+      <c r="C265" t="s">
+        <v>168</v>
+      </c>
+      <c r="D265" t="s">
+        <v>173</v>
+      </c>
+      <c r="E265" t="s">
+        <v>180</v>
+      </c>
+      <c r="F265" t="s">
+        <v>180</v>
+      </c>
+      <c r="G265" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" t="s">
+        <v>33</v>
+      </c>
+      <c r="B266" t="s">
+        <v>131</v>
+      </c>
+      <c r="C266" t="s">
+        <v>171</v>
+      </c>
+      <c r="D266" t="s">
+        <v>165</v>
+      </c>
+      <c r="E266" t="s">
+        <v>7</v>
+      </c>
+      <c r="F266" t="s">
+        <v>180</v>
+      </c>
+      <c r="G266" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" t="s">
+        <v>33</v>
+      </c>
+      <c r="B267" t="s">
+        <v>131</v>
+      </c>
+      <c r="C267" t="s">
+        <v>160</v>
+      </c>
+      <c r="D267" t="s">
+        <v>178</v>
+      </c>
+      <c r="E267" t="s">
+        <v>180</v>
+      </c>
+      <c r="F267" t="s">
+        <v>7</v>
+      </c>
+      <c r="G267" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" t="s">
+        <v>33</v>
+      </c>
+      <c r="B268" t="s">
+        <v>131</v>
+      </c>
+      <c r="C268" t="s">
+        <v>161</v>
+      </c>
+      <c r="D268" t="s">
+        <v>166</v>
+      </c>
+      <c r="E268" t="s">
+        <v>7</v>
+      </c>
+      <c r="F268" t="s">
+        <v>7</v>
+      </c>
+      <c r="G268" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" t="s">
+        <v>33</v>
+      </c>
+      <c r="B269" t="s">
+        <v>131</v>
+      </c>
+      <c r="C269" t="s">
+        <v>179</v>
+      </c>
+      <c r="D269" t="s">
+        <v>169</v>
+      </c>
+      <c r="E269" t="s">
+        <v>7</v>
+      </c>
+      <c r="F269" t="s">
+        <v>8</v>
+      </c>
+      <c r="G269" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>33</v>
+      </c>
+      <c r="B270" t="s">
+        <v>131</v>
+      </c>
+      <c r="C270" t="s">
+        <v>176</v>
+      </c>
+      <c r="D270" t="s">
+        <v>174</v>
+      </c>
+      <c r="E270" t="s">
+        <v>8</v>
+      </c>
+      <c r="F270" t="s">
+        <v>7</v>
+      </c>
+      <c r="G270" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>33</v>
+      </c>
+      <c r="B271" t="s">
+        <v>132</v>
+      </c>
+      <c r="C271" t="s">
+        <v>163</v>
+      </c>
+      <c r="D271" t="s">
+        <v>162</v>
+      </c>
+      <c r="E271" t="s">
+        <v>8</v>
+      </c>
+      <c r="F271" t="s">
+        <v>7</v>
+      </c>
+      <c r="G271" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>34</v>
+      </c>
+      <c r="B272" t="s">
         <v>133</v>
       </c>
-      <c r="D259" t="s">
+      <c r="C272" t="s">
+        <v>176</v>
+      </c>
+      <c r="D272" t="s">
+        <v>168</v>
+      </c>
+      <c r="E272" t="s">
+        <v>7</v>
+      </c>
+      <c r="F272" t="s">
+        <v>7</v>
+      </c>
+      <c r="G272" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
+        <v>34</v>
+      </c>
+      <c r="B273" t="s">
+        <v>134</v>
+      </c>
+      <c r="C273" t="s">
+        <v>178</v>
+      </c>
+      <c r="D273" t="s">
+        <v>177</v>
+      </c>
+      <c r="E273" t="s">
+        <v>10</v>
+      </c>
+      <c r="F273" t="s">
+        <v>8</v>
+      </c>
+      <c r="G273" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
+        <v>34</v>
+      </c>
+      <c r="B274" t="s">
+        <v>134</v>
+      </c>
+      <c r="C274" t="s">
+        <v>165</v>
+      </c>
+      <c r="D274" t="s">
+        <v>161</v>
+      </c>
+      <c r="E274" t="s">
+        <v>7</v>
+      </c>
+      <c r="F274" t="s">
+        <v>180</v>
+      </c>
+      <c r="G274" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
+        <v>34</v>
+      </c>
+      <c r="B275" t="s">
+        <v>134</v>
+      </c>
+      <c r="C275" t="s">
+        <v>169</v>
+      </c>
+      <c r="D275" t="s">
+        <v>163</v>
+      </c>
+      <c r="E275" t="s">
+        <v>180</v>
+      </c>
+      <c r="F275" t="s">
+        <v>7</v>
+      </c>
+      <c r="G275" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>34</v>
+      </c>
+      <c r="B276" t="s">
+        <v>134</v>
+      </c>
+      <c r="C276" t="s">
+        <v>162</v>
+      </c>
+      <c r="D276" t="s">
+        <v>170</v>
+      </c>
+      <c r="E276" t="s">
+        <v>8</v>
+      </c>
+      <c r="F276" t="s">
+        <v>9</v>
+      </c>
+      <c r="G276" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>34</v>
+      </c>
+      <c r="B277" t="s">
         <v>135</v>
       </c>
-      <c r="E259" t="s">
-        <v>8</v>
-      </c>
-      <c r="F259" t="s">
-        <v>7</v>
-      </c>
-      <c r="G259" t="s">
+      <c r="C277" t="s">
+        <v>166</v>
+      </c>
+      <c r="D277" t="s">
+        <v>171</v>
+      </c>
+      <c r="E277" t="s">
+        <v>180</v>
+      </c>
+      <c r="F277" t="s">
+        <v>7</v>
+      </c>
+      <c r="G277" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>34</v>
+      </c>
+      <c r="B278" t="s">
+        <v>135</v>
+      </c>
+      <c r="C278" t="s">
+        <v>172</v>
+      </c>
+      <c r="D278" t="s">
+        <v>160</v>
+      </c>
+      <c r="E278" t="s">
+        <v>7</v>
+      </c>
+      <c r="F278" t="s">
+        <v>180</v>
+      </c>
+      <c r="G278" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>34</v>
+      </c>
+      <c r="B279" t="s">
+        <v>135</v>
+      </c>
+      <c r="C279" t="s">
+        <v>174</v>
+      </c>
+      <c r="D279" t="s">
+        <v>179</v>
+      </c>
+      <c r="E279" t="s">
+        <v>8</v>
+      </c>
+      <c r="F279" t="s">
+        <v>8</v>
+      </c>
+      <c r="G279" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" t="s">
+        <v>34</v>
+      </c>
+      <c r="B280" t="s">
+        <v>135</v>
+      </c>
+      <c r="C280" t="s">
+        <v>173</v>
+      </c>
+      <c r="D280" t="s">
+        <v>164</v>
+      </c>
+      <c r="E280" t="s">
+        <v>8</v>
+      </c>
+      <c r="F280" t="s">
+        <v>8</v>
+      </c>
+      <c r="G280" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>34</v>
+      </c>
+      <c r="B281" t="s">
+        <v>136</v>
+      </c>
+      <c r="C281" t="s">
+        <v>175</v>
+      </c>
+      <c r="D281" t="s">
+        <v>167</v>
+      </c>
+      <c r="E281" t="s">
+        <v>7</v>
+      </c>
+      <c r="F281" t="s">
+        <v>8</v>
+      </c>
+      <c r="G281" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>35</v>
+      </c>
+      <c r="B282" t="s">
+        <v>137</v>
+      </c>
+      <c r="C282" t="s">
+        <v>179</v>
+      </c>
+      <c r="D282" t="s">
+        <v>173</v>
+      </c>
+      <c r="E282" t="s">
+        <v>180</v>
+      </c>
+      <c r="F282" t="s">
+        <v>7</v>
+      </c>
+      <c r="G282" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
+        <v>35</v>
+      </c>
+      <c r="B283" t="s">
+        <v>138</v>
+      </c>
+      <c r="C283" t="s">
+        <v>160</v>
+      </c>
+      <c r="D283" t="s">
+        <v>169</v>
+      </c>
+      <c r="E283" t="s">
+        <v>7</v>
+      </c>
+      <c r="F283" t="s">
+        <v>180</v>
+      </c>
+      <c r="G283" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" t="s">
+        <v>35</v>
+      </c>
+      <c r="B284" t="s">
+        <v>139</v>
+      </c>
+      <c r="C284" t="s">
+        <v>170</v>
+      </c>
+      <c r="D284" t="s">
+        <v>178</v>
+      </c>
+      <c r="E284" t="s">
+        <v>180</v>
+      </c>
+      <c r="F284" t="s">
+        <v>8</v>
+      </c>
+      <c r="G284" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" t="s">
+        <v>35</v>
+      </c>
+      <c r="B285" t="s">
+        <v>139</v>
+      </c>
+      <c r="C285" t="s">
+        <v>167</v>
+      </c>
+      <c r="D285" t="s">
+        <v>168</v>
+      </c>
+      <c r="E285" t="s">
+        <v>180</v>
+      </c>
+      <c r="F285" t="s">
+        <v>7</v>
+      </c>
+      <c r="G285" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" t="s">
+        <v>35</v>
+      </c>
+      <c r="B286" t="s">
+        <v>139</v>
+      </c>
+      <c r="C286" t="s">
+        <v>177</v>
+      </c>
+      <c r="D286" t="s">
+        <v>166</v>
+      </c>
+      <c r="E286" t="s">
+        <v>8</v>
+      </c>
+      <c r="F286" t="s">
+        <v>9</v>
+      </c>
+      <c r="G286" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" t="s">
+        <v>35</v>
+      </c>
+      <c r="B287" t="s">
+        <v>139</v>
+      </c>
+      <c r="C287" t="s">
+        <v>161</v>
+      </c>
+      <c r="D287" t="s">
+        <v>175</v>
+      </c>
+      <c r="E287" t="s">
+        <v>180</v>
+      </c>
+      <c r="F287" t="s">
+        <v>180</v>
+      </c>
+      <c r="G287" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>35</v>
+      </c>
+      <c r="B288" t="s">
+        <v>140</v>
+      </c>
+      <c r="C288" t="s">
+        <v>174</v>
+      </c>
+      <c r="D288" t="s">
+        <v>162</v>
+      </c>
+      <c r="E288" t="s">
+        <v>7</v>
+      </c>
+      <c r="F288" t="s">
+        <v>9</v>
+      </c>
+      <c r="G288" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>35</v>
+      </c>
+      <c r="B289" t="s">
+        <v>140</v>
+      </c>
+      <c r="C289" t="s">
+        <v>171</v>
+      </c>
+      <c r="D289" t="s">
+        <v>172</v>
+      </c>
+      <c r="E289" t="s">
+        <v>7</v>
+      </c>
+      <c r="F289" t="s">
+        <v>180</v>
+      </c>
+      <c r="G289" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
+        <v>35</v>
+      </c>
+      <c r="B290" t="s">
+        <v>140</v>
+      </c>
+      <c r="C290" t="s">
+        <v>164</v>
+      </c>
+      <c r="D290" t="s">
+        <v>165</v>
+      </c>
+      <c r="E290" t="s">
+        <v>7</v>
+      </c>
+      <c r="F290" t="s">
+        <v>7</v>
+      </c>
+      <c r="G290" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" t="s">
+        <v>36</v>
+      </c>
+      <c r="B291" t="s">
         <v>141</v>
+      </c>
+      <c r="C291" t="s">
+        <v>176</v>
+      </c>
+      <c r="D291" t="s">
+        <v>179</v>
+      </c>
+      <c r="E291" t="s">
+        <v>180</v>
+      </c>
+      <c r="F291" t="s">
+        <v>9</v>
+      </c>
+      <c r="G291" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" t="s">
+        <v>36</v>
+      </c>
+      <c r="B292" t="s">
+        <v>141</v>
+      </c>
+      <c r="C292" t="s">
+        <v>162</v>
+      </c>
+      <c r="D292" t="s">
+        <v>161</v>
+      </c>
+      <c r="E292" t="s">
+        <v>7</v>
+      </c>
+      <c r="F292" t="s">
+        <v>7</v>
+      </c>
+      <c r="G292" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" t="s">
+        <v>36</v>
+      </c>
+      <c r="B293" t="s">
+        <v>141</v>
+      </c>
+      <c r="C293" t="s">
+        <v>168</v>
+      </c>
+      <c r="D293" t="s">
+        <v>170</v>
+      </c>
+      <c r="E293" t="s">
+        <v>7</v>
+      </c>
+      <c r="F293" t="s">
+        <v>180</v>
+      </c>
+      <c r="G293" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" t="s">
+        <v>36</v>
+      </c>
+      <c r="B294" t="s">
+        <v>141</v>
+      </c>
+      <c r="C294" t="s">
+        <v>175</v>
+      </c>
+      <c r="D294" t="s">
+        <v>174</v>
+      </c>
+      <c r="E294" t="s">
+        <v>7</v>
+      </c>
+      <c r="F294" t="s">
+        <v>180</v>
+      </c>
+      <c r="G294" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" t="s">
+        <v>36</v>
+      </c>
+      <c r="B295" t="s">
+        <v>141</v>
+      </c>
+      <c r="C295" t="s">
+        <v>173</v>
+      </c>
+      <c r="D295" t="s">
+        <v>172</v>
+      </c>
+      <c r="E295" t="s">
+        <v>7</v>
+      </c>
+      <c r="F295" t="s">
+        <v>8</v>
+      </c>
+      <c r="G295" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>36</v>
+      </c>
+      <c r="B296" t="s">
+        <v>142</v>
+      </c>
+      <c r="C296" t="s">
+        <v>169</v>
+      </c>
+      <c r="D296" t="s">
+        <v>177</v>
+      </c>
+      <c r="E296" t="s">
+        <v>9</v>
+      </c>
+      <c r="F296" t="s">
+        <v>180</v>
+      </c>
+      <c r="G296" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" t="s">
+        <v>36</v>
+      </c>
+      <c r="B297" t="s">
+        <v>142</v>
+      </c>
+      <c r="C297" t="s">
+        <v>178</v>
+      </c>
+      <c r="D297" t="s">
+        <v>171</v>
+      </c>
+      <c r="E297" t="s">
+        <v>7</v>
+      </c>
+      <c r="F297" t="s">
+        <v>7</v>
+      </c>
+      <c r="G297" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>36</v>
+      </c>
+      <c r="B298" t="s">
+        <v>142</v>
+      </c>
+      <c r="C298" t="s">
+        <v>165</v>
+      </c>
+      <c r="D298" t="s">
+        <v>167</v>
+      </c>
+      <c r="E298" t="s">
+        <v>7</v>
+      </c>
+      <c r="F298" t="s">
+        <v>7</v>
+      </c>
+      <c r="G298" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>36</v>
+      </c>
+      <c r="B299" t="s">
+        <v>142</v>
+      </c>
+      <c r="C299" t="s">
+        <v>166</v>
+      </c>
+      <c r="D299" t="s">
+        <v>164</v>
+      </c>
+      <c r="E299" t="s">
+        <v>180</v>
+      </c>
+      <c r="F299" t="s">
+        <v>180</v>
+      </c>
+      <c r="G299" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>36</v>
+      </c>
+      <c r="B300" t="s">
+        <v>142</v>
+      </c>
+      <c r="C300" t="s">
+        <v>163</v>
+      </c>
+      <c r="D300" t="s">
+        <v>160</v>
+      </c>
+      <c r="E300" t="s">
+        <v>8</v>
+      </c>
+      <c r="F300" t="s">
+        <v>180</v>
+      </c>
+      <c r="G300" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>37</v>
+      </c>
+      <c r="B301" t="s">
+        <v>143</v>
+      </c>
+      <c r="C301" t="s">
+        <v>177</v>
+      </c>
+      <c r="D301" t="s">
+        <v>165</v>
+      </c>
+      <c r="E301" t="s">
+        <v>8</v>
+      </c>
+      <c r="F301" t="s">
+        <v>8</v>
+      </c>
+      <c r="G301" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>37</v>
+      </c>
+      <c r="B302" t="s">
+        <v>144</v>
+      </c>
+      <c r="C302" t="s">
+        <v>172</v>
+      </c>
+      <c r="D302" t="s">
+        <v>166</v>
+      </c>
+      <c r="E302" t="s">
+        <v>9</v>
+      </c>
+      <c r="F302" t="s">
+        <v>180</v>
+      </c>
+      <c r="G302" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>37</v>
+      </c>
+      <c r="B303" t="s">
+        <v>144</v>
+      </c>
+      <c r="C303" t="s">
+        <v>164</v>
+      </c>
+      <c r="D303" t="s">
+        <v>175</v>
+      </c>
+      <c r="E303" t="s">
+        <v>7</v>
+      </c>
+      <c r="F303" t="s">
+        <v>180</v>
+      </c>
+      <c r="G303" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" t="s">
+        <v>37</v>
+      </c>
+      <c r="B304" t="s">
+        <v>144</v>
+      </c>
+      <c r="C304" t="s">
+        <v>160</v>
+      </c>
+      <c r="D304" t="s">
+        <v>168</v>
+      </c>
+      <c r="E304" t="s">
+        <v>9</v>
+      </c>
+      <c r="F304" t="s">
+        <v>8</v>
+      </c>
+      <c r="G304" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" t="s">
+        <v>37</v>
+      </c>
+      <c r="B305" t="s">
+        <v>145</v>
+      </c>
+      <c r="C305" t="s">
+        <v>161</v>
+      </c>
+      <c r="D305" t="s">
+        <v>169</v>
+      </c>
+      <c r="E305" t="s">
+        <v>180</v>
+      </c>
+      <c r="F305" t="s">
+        <v>180</v>
+      </c>
+      <c r="G305" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" t="s">
+        <v>37</v>
+      </c>
+      <c r="B306" t="s">
+        <v>145</v>
+      </c>
+      <c r="C306" t="s">
+        <v>170</v>
+      </c>
+      <c r="D306" t="s">
+        <v>176</v>
+      </c>
+      <c r="E306" t="s">
+        <v>8</v>
+      </c>
+      <c r="F306" t="s">
+        <v>10</v>
+      </c>
+      <c r="G306" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" t="s">
+        <v>37</v>
+      </c>
+      <c r="B307" t="s">
+        <v>145</v>
+      </c>
+      <c r="C307" t="s">
+        <v>178</v>
+      </c>
+      <c r="D307" t="s">
+        <v>179</v>
+      </c>
+      <c r="E307" t="s">
+        <v>8</v>
+      </c>
+      <c r="F307" t="s">
+        <v>7</v>
+      </c>
+      <c r="G307" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" t="s">
+        <v>37</v>
+      </c>
+      <c r="B308" t="s">
+        <v>145</v>
+      </c>
+      <c r="C308" t="s">
+        <v>171</v>
+      </c>
+      <c r="D308" t="s">
+        <v>162</v>
+      </c>
+      <c r="E308" t="s">
+        <v>7</v>
+      </c>
+      <c r="F308" t="s">
+        <v>8</v>
+      </c>
+      <c r="G308" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" t="s">
+        <v>37</v>
+      </c>
+      <c r="B309" t="s">
+        <v>145</v>
+      </c>
+      <c r="C309" t="s">
+        <v>174</v>
+      </c>
+      <c r="D309" t="s">
+        <v>173</v>
+      </c>
+      <c r="E309" t="s">
+        <v>7</v>
+      </c>
+      <c r="F309" t="s">
+        <v>180</v>
+      </c>
+      <c r="G309" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" t="s">
+        <v>37</v>
+      </c>
+      <c r="B310" t="s">
+        <v>146</v>
+      </c>
+      <c r="C310" t="s">
+        <v>167</v>
+      </c>
+      <c r="D310" t="s">
+        <v>163</v>
+      </c>
+      <c r="E310" t="s">
+        <v>7</v>
+      </c>
+      <c r="F310" t="s">
+        <v>8</v>
+      </c>
+      <c r="G310" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" t="s">
+        <v>38</v>
+      </c>
+      <c r="B311" t="s">
+        <v>147</v>
+      </c>
+      <c r="C311" t="s">
+        <v>175</v>
+      </c>
+      <c r="D311" t="s">
+        <v>177</v>
+      </c>
+      <c r="E311" t="s">
+        <v>10</v>
+      </c>
+      <c r="F311" t="s">
+        <v>7</v>
+      </c>
+      <c r="G311" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" t="s">
+        <v>38</v>
+      </c>
+      <c r="B312" t="s">
+        <v>148</v>
+      </c>
+      <c r="C312" t="s">
+        <v>166</v>
+      </c>
+      <c r="D312" t="s">
+        <v>160</v>
+      </c>
+      <c r="E312" t="s">
+        <v>7</v>
+      </c>
+      <c r="F312" t="s">
+        <v>180</v>
+      </c>
+      <c r="G312" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" t="s">
+        <v>38</v>
+      </c>
+      <c r="B313" t="s">
+        <v>148</v>
+      </c>
+      <c r="C313" t="s">
+        <v>168</v>
+      </c>
+      <c r="D313" t="s">
+        <v>174</v>
+      </c>
+      <c r="E313" t="s">
+        <v>180</v>
+      </c>
+      <c r="F313" t="s">
+        <v>180</v>
+      </c>
+      <c r="G313" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" t="s">
+        <v>38</v>
+      </c>
+      <c r="B314" t="s">
+        <v>148</v>
+      </c>
+      <c r="C314" t="s">
+        <v>169</v>
+      </c>
+      <c r="D314" t="s">
+        <v>170</v>
+      </c>
+      <c r="E314" t="s">
+        <v>180</v>
+      </c>
+      <c r="F314" t="s">
+        <v>180</v>
+      </c>
+      <c r="G314" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" t="s">
+        <v>38</v>
+      </c>
+      <c r="B315" t="s">
+        <v>149</v>
+      </c>
+      <c r="C315" t="s">
+        <v>176</v>
+      </c>
+      <c r="D315" t="s">
+        <v>161</v>
+      </c>
+      <c r="E315" t="s">
+        <v>8</v>
+      </c>
+      <c r="F315" t="s">
+        <v>8</v>
+      </c>
+      <c r="G315" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" t="s">
+        <v>38</v>
+      </c>
+      <c r="B316" t="s">
+        <v>149</v>
+      </c>
+      <c r="C316" t="s">
+        <v>165</v>
+      </c>
+      <c r="D316" t="s">
+        <v>172</v>
+      </c>
+      <c r="E316" t="s">
+        <v>9</v>
+      </c>
+      <c r="F316" t="s">
+        <v>9</v>
+      </c>
+      <c r="G316" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" t="s">
+        <v>38</v>
+      </c>
+      <c r="B317" t="s">
+        <v>149</v>
+      </c>
+      <c r="C317" t="s">
+        <v>163</v>
+      </c>
+      <c r="D317" t="s">
+        <v>178</v>
+      </c>
+      <c r="E317" t="s">
+        <v>8</v>
+      </c>
+      <c r="F317" t="s">
+        <v>8</v>
+      </c>
+      <c r="G317" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" t="s">
+        <v>38</v>
+      </c>
+      <c r="B318" t="s">
+        <v>150</v>
+      </c>
+      <c r="C318" t="s">
+        <v>173</v>
+      </c>
+      <c r="D318" t="s">
+        <v>162</v>
+      </c>
+      <c r="E318" t="s">
+        <v>7</v>
+      </c>
+      <c r="F318" t="s">
+        <v>7</v>
+      </c>
+      <c r="G318" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" t="s">
+        <v>38</v>
+      </c>
+      <c r="B319" t="s">
+        <v>150</v>
+      </c>
+      <c r="C319" t="s">
+        <v>179</v>
+      </c>
+      <c r="D319" t="s">
+        <v>171</v>
+      </c>
+      <c r="E319" t="s">
+        <v>8</v>
+      </c>
+      <c r="F319" t="s">
+        <v>8</v>
+      </c>
+      <c r="G319" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" t="s">
+        <v>38</v>
+      </c>
+      <c r="B320" t="s">
+        <v>151</v>
+      </c>
+      <c r="C320" t="s">
+        <v>167</v>
+      </c>
+      <c r="D320" t="s">
+        <v>164</v>
+      </c>
+      <c r="E320" t="s">
+        <v>7</v>
+      </c>
+      <c r="F320" t="s">
+        <v>8</v>
+      </c>
+      <c r="G320" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" t="s">
+        <v>39</v>
+      </c>
+      <c r="B321" t="s">
+        <v>152</v>
+      </c>
+      <c r="C321" t="s">
+        <v>162</v>
+      </c>
+      <c r="D321" t="s">
+        <v>175</v>
+      </c>
+      <c r="E321" t="s">
+        <v>180</v>
+      </c>
+      <c r="F321" t="s">
+        <v>7</v>
+      </c>
+      <c r="G321" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" t="s">
+        <v>39</v>
+      </c>
+      <c r="B322" t="s">
+        <v>152</v>
+      </c>
+      <c r="C322" t="s">
+        <v>178</v>
+      </c>
+      <c r="D322" t="s">
+        <v>174</v>
+      </c>
+      <c r="E322" t="s">
+        <v>8</v>
+      </c>
+      <c r="F322" t="s">
+        <v>8</v>
+      </c>
+      <c r="G322" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" t="s">
+        <v>39</v>
+      </c>
+      <c r="B323" t="s">
+        <v>153</v>
+      </c>
+      <c r="C323" t="s">
+        <v>160</v>
+      </c>
+      <c r="D323" t="s">
+        <v>176</v>
+      </c>
+      <c r="E323" t="s">
+        <v>7</v>
+      </c>
+      <c r="F323" t="s">
+        <v>180</v>
+      </c>
+      <c r="G323" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" t="s">
+        <v>39</v>
+      </c>
+      <c r="B324" t="s">
+        <v>153</v>
+      </c>
+      <c r="C324" t="s">
+        <v>171</v>
+      </c>
+      <c r="D324" t="s">
+        <v>167</v>
+      </c>
+      <c r="E324" t="s">
+        <v>7</v>
+      </c>
+      <c r="F324" t="s">
+        <v>180</v>
+      </c>
+      <c r="G324" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" t="s">
+        <v>39</v>
+      </c>
+      <c r="B325" t="s">
+        <v>154</v>
+      </c>
+      <c r="C325" t="s">
+        <v>165</v>
+      </c>
+      <c r="D325" t="s">
+        <v>166</v>
+      </c>
+      <c r="E325" t="s">
+        <v>180</v>
+      </c>
+      <c r="F325" t="s">
+        <v>9</v>
+      </c>
+      <c r="G325" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" t="s">
+        <v>39</v>
+      </c>
+      <c r="B326" t="s">
+        <v>154</v>
+      </c>
+      <c r="C326" t="s">
+        <v>168</v>
+      </c>
+      <c r="D326" t="s">
+        <v>161</v>
+      </c>
+      <c r="E326" t="s">
+        <v>180</v>
+      </c>
+      <c r="F326" t="s">
+        <v>180</v>
+      </c>
+      <c r="G326" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" t="s">
+        <v>39</v>
+      </c>
+      <c r="B327" t="s">
+        <v>154</v>
+      </c>
+      <c r="C327" t="s">
+        <v>177</v>
+      </c>
+      <c r="D327" t="s">
+        <v>173</v>
+      </c>
+      <c r="E327" t="s">
+        <v>180</v>
+      </c>
+      <c r="F327" t="s">
+        <v>8</v>
+      </c>
+      <c r="G327" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" t="s">
+        <v>39</v>
+      </c>
+      <c r="B328" t="s">
+        <v>154</v>
+      </c>
+      <c r="C328" t="s">
+        <v>170</v>
+      </c>
+      <c r="D328" t="s">
+        <v>179</v>
+      </c>
+      <c r="E328" t="s">
+        <v>7</v>
+      </c>
+      <c r="F328" t="s">
+        <v>8</v>
+      </c>
+      <c r="G328" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" t="s">
+        <v>39</v>
+      </c>
+      <c r="B329" t="s">
+        <v>155</v>
+      </c>
+      <c r="C329" t="s">
+        <v>164</v>
+      </c>
+      <c r="D329" t="s">
+        <v>169</v>
+      </c>
+      <c r="E329" t="s">
+        <v>7</v>
+      </c>
+      <c r="F329" t="s">
+        <v>9</v>
+      </c>
+      <c r="G329" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" t="s">
+        <v>39</v>
+      </c>
+      <c r="B330" t="s">
+        <v>155</v>
+      </c>
+      <c r="C330" t="s">
+        <v>172</v>
+      </c>
+      <c r="D330" t="s">
+        <v>163</v>
+      </c>
+      <c r="E330" t="s">
+        <v>7</v>
+      </c>
+      <c r="F330" t="s">
+        <v>8</v>
+      </c>
+      <c r="G330" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" t="s">
+        <v>40</v>
+      </c>
+      <c r="B331" t="s">
+        <v>156</v>
+      </c>
+      <c r="C331" t="s">
+        <v>161</v>
+      </c>
+      <c r="D331" t="s">
+        <v>177</v>
+      </c>
+      <c r="E331" t="s">
+        <v>9</v>
+      </c>
+      <c r="F331" t="s">
+        <v>180</v>
+      </c>
+      <c r="G331" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" t="s">
+        <v>40</v>
+      </c>
+      <c r="B332" t="s">
+        <v>157</v>
+      </c>
+      <c r="C332" t="s">
+        <v>166</v>
+      </c>
+      <c r="D332" t="s">
+        <v>170</v>
+      </c>
+      <c r="E332" t="s">
+        <v>7</v>
+      </c>
+      <c r="F332" t="s">
+        <v>7</v>
+      </c>
+      <c r="G332" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" t="s">
+        <v>40</v>
+      </c>
+      <c r="B333" t="s">
+        <v>157</v>
+      </c>
+      <c r="C333" t="s">
+        <v>174</v>
+      </c>
+      <c r="D333" t="s">
+        <v>172</v>
+      </c>
+      <c r="E333" t="s">
+        <v>180</v>
+      </c>
+      <c r="F333" t="s">
+        <v>180</v>
+      </c>
+      <c r="G333" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" t="s">
+        <v>40</v>
+      </c>
+      <c r="B334" t="s">
+        <v>157</v>
+      </c>
+      <c r="C334" t="s">
+        <v>175</v>
+      </c>
+      <c r="D334" t="s">
+        <v>171</v>
+      </c>
+      <c r="E334" t="s">
+        <v>7</v>
+      </c>
+      <c r="F334" t="s">
+        <v>180</v>
+      </c>
+      <c r="G334" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" t="s">
+        <v>40</v>
+      </c>
+      <c r="B335" t="s">
+        <v>158</v>
+      </c>
+      <c r="C335" t="s">
+        <v>163</v>
+      </c>
+      <c r="D335" t="s">
+        <v>168</v>
+      </c>
+      <c r="E335" t="s">
+        <v>8</v>
+      </c>
+      <c r="F335" t="s">
+        <v>180</v>
+      </c>
+      <c r="G335" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" t="s">
+        <v>40</v>
+      </c>
+      <c r="B336" t="s">
+        <v>158</v>
+      </c>
+      <c r="C336" t="s">
+        <v>169</v>
+      </c>
+      <c r="D336" t="s">
+        <v>167</v>
+      </c>
+      <c r="E336" t="s">
+        <v>7</v>
+      </c>
+      <c r="F336" t="s">
+        <v>7</v>
+      </c>
+      <c r="G336" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" t="s">
+        <v>40</v>
+      </c>
+      <c r="B337" t="s">
+        <v>158</v>
+      </c>
+      <c r="C337" t="s">
+        <v>179</v>
+      </c>
+      <c r="D337" t="s">
+        <v>160</v>
+      </c>
+      <c r="E337" t="s">
+        <v>8</v>
+      </c>
+      <c r="F337" t="s">
+        <v>180</v>
+      </c>
+      <c r="G337" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" t="s">
+        <v>40</v>
+      </c>
+      <c r="B338" t="s">
+        <v>158</v>
+      </c>
+      <c r="C338" t="s">
+        <v>176</v>
+      </c>
+      <c r="D338" t="s">
+        <v>164</v>
+      </c>
+      <c r="E338" t="s">
+        <v>8</v>
+      </c>
+      <c r="F338" t="s">
+        <v>8</v>
+      </c>
+      <c r="G338" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" t="s">
+        <v>40</v>
+      </c>
+      <c r="B339" t="s">
+        <v>158</v>
+      </c>
+      <c r="C339" t="s">
+        <v>173</v>
+      </c>
+      <c r="D339" t="s">
+        <v>165</v>
+      </c>
+      <c r="E339" t="s">
+        <v>11</v>
+      </c>
+      <c r="F339" t="s">
+        <v>7</v>
+      </c>
+      <c r="G339" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" t="s">
+        <v>40</v>
+      </c>
+      <c r="B340" t="s">
+        <v>159</v>
+      </c>
+      <c r="C340" t="s">
+        <v>162</v>
+      </c>
+      <c r="D340" t="s">
+        <v>178</v>
+      </c>
+      <c r="E340" t="s">
+        <v>9</v>
+      </c>
+      <c r="F340" t="s">
+        <v>180</v>
+      </c>
+      <c r="G340" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
